--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail14 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>2.157236065298556e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.529152252658812</v>
+        <v>1.539967979106901e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.41952720392877</v>
+        <v>3.848596424954585e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.539967979106901e-06</v>
+        <v>0.1004984726314163</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.848596424954585e-06</v>
+        <v>0.3575698095040943</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1004984726314163</v>
+        <v>0.1376295208437488</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3575698095040943</v>
+        <v>1.868307024358807</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1376295208437488</v>
+        <v>1.858512999615602</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.857394361243883</v>
+        <v>4.236023062178783</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.858512999615602</v>
+        <v>1.085537234111076e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.236023062178783</v>
+        <v>205635806.5456289</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.085537234111076e-15</v>
+        <v>5.795531332175948e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>205635806.5456289</v>
+        <v>45.9031196802836</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.795531332175948e-07</v>
+        <v>0.0001320362123650542</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>45.9031196802836</v>
+        <v>7.685696767382035</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001320362123650542</v>
+        <v>1.327910991013093</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.685696767382035</v>
+        <v>0.00779937045566207</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.327910991013093</v>
+        <v>3.089905479259792</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00779937045566207</v>
+        <v>0.9588791068628828</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.089905479259792</v>
+        <v>1.560350763983866</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9588791068628828</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.560350763983866</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2704415181136346</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>1.567235261270705e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.017597754187506</v>
+        <v>1.12261310849955e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>11.94963048785344</v>
+        <v>3.866676715376432e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.12261310849955e-06</v>
+        <v>0.09519108151351184</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.866676715376432e-06</v>
+        <v>0.3645403294106946</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09519108151351184</v>
+        <v>0.141621954169002</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3645403294106946</v>
+        <v>1.848890454496598</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.141621954169002</v>
+        <v>1.844890058889229</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.828066624061607</v>
+        <v>4.14222218688251</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.844890058889229</v>
+        <v>1.135258010699698e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.14222218688251</v>
+        <v>203261042.892612</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.135258010699698e-15</v>
+        <v>5.849546142476588e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>203261042.892612</v>
+        <v>46.9032432434547</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.849546142476588e-07</v>
+        <v>0.0001421356451847695</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>46.9032432434547</v>
+        <v>8.099513244571991</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001421356451847695</v>
+        <v>1.344651553239566</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.099513244571991</v>
+        <v>0.00932439891244077</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.344651553239566</v>
+        <v>3.041868491825527</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00932439891244077</v>
+        <v>0.9575694955302426</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.041868491825527</v>
+        <v>1.550960726090826</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9575694955302426</v>
+        <v>11</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.550960726090826</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3019813113241864</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>1.174380030082516e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.126224423099303</v>
+        <v>8.194686143381235e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.609965170148755</v>
+        <v>3.879012163957429e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.194686143381235e-07</v>
+        <v>0.0854429530933028</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.879012163957429e-06</v>
+        <v>0.365285315888623</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0854429530933028</v>
+        <v>0.1404180100842981</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.365285315888623</v>
+        <v>1.834810845201237</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1404180100842981</v>
+        <v>1.846756694729021</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.80222570587864</v>
+        <v>3.738673954251242</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.846756694729021</v>
+        <v>1.393561601757774e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.738673954251242</v>
+        <v>166534306.1829163</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.393561601757774e-15</v>
+        <v>7.132002026210753e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>166534306.1829163</v>
+        <v>38.64858474491051</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.132002026210753e-07</v>
+        <v>0.000165642971683964</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>38.64858474491051</v>
+        <v>9.8402744923565</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000165642971683964</v>
+        <v>1.2538919317955</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.8402744923565</v>
+        <v>0.01603937493648259</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.2538919317955</v>
+        <v>2.900563196716396</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01603937493648259</v>
+        <v>0.956833576122193</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.900563196716396</v>
+        <v>1.64847449037289</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.956833576122193</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.64847449037289</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3586408338732299</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>9.352059009385083e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.01967826293689</v>
+        <v>5.959332145446338e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.680557257708056</v>
+        <v>3.887120784499598e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.959332145446338e-07</v>
+        <v>0.06838186289053177</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.887120784499598e-06</v>
+        <v>0.347980262403614</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06838186289053177</v>
+        <v>0.1254996827814298</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.347980262403614</v>
+        <v>1.829769802776126</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1254996827814298</v>
+        <v>1.824324187534138</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.786357086821788</v>
+        <v>3.714568851183178</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.824324187534138</v>
+        <v>1.411706879007776e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.714568851183178</v>
+        <v>166234295.2140915</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.411706879007776e-15</v>
+        <v>7.122408239351537e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>166234295.2140915</v>
+        <v>39.01088329945481</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.122408239351537e-07</v>
+        <v>0.000169366366851313</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>39.01088329945481</v>
+        <v>10.60361829404237</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000169366366851313</v>
+        <v>1.280188651124069</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.60361829404237</v>
+        <v>0.01904299892386926</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.280188651124069</v>
+        <v>2.989535443639144</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01904299892386926</v>
+        <v>0.9558127174180763</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.989535443639144</v>
+        <v>1.651407729032851</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9558127174180763</v>
+        <v>12</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.651407729032851</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3570704480712581</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>8.094344046245878e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1885015859786656</v>
+        <v>4.358716608767308e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2655207252885012</v>
+        <v>3.892132452359094e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.358716608767308e-07</v>
+        <v>0.04709833158174451</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.892132452359094e-06</v>
+        <v>0.3157727322834048</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04709833158174451</v>
+        <v>0.1017542228888234</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3157727322834048</v>
+        <v>1.852575777838142</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1017542228888234</v>
+        <v>1.864756908871931</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.816629993460949</v>
+        <v>3.7450548530451</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.864756908871931</v>
+        <v>1.388816891434505e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.7450548530451</v>
+        <v>164766703.4119358</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.388816891434505e-15</v>
+        <v>7.218790972059158e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>164766703.4119358</v>
+        <v>37.7036933989234</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.218790972059158e-07</v>
+        <v>0.0001220436921668014</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>37.7036933989234</v>
+        <v>8.713932564629971</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001220436921668014</v>
+        <v>1.238890749647763</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.713932564629971</v>
+        <v>0.009267097391123162</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.238890749647763</v>
+        <v>3.223056718273313</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009267097391123162</v>
+        <v>0.9568919033441575</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.223056718273313</v>
+        <v>1.586125881421055</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9568919033441575</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.586125881421055</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3364689201512778</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>7.537330422617479e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1640631125517547</v>
+        <v>3.226536993525582e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.09235033169286</v>
+        <v>3.895012993829987e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.226536993525582e-07</v>
+        <v>0.02764560261409497</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.895012993829987e-06</v>
+        <v>0.2811196362351118</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02764560261409497</v>
+        <v>0.07968520221071576</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2811196362351118</v>
+        <v>1.85421655279115</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07968520221071576</v>
+        <v>1.781079283517674</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.819417162366564</v>
+        <v>3.97242850201945</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.781079283517674</v>
+        <v>1.157857094394767e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.97242850201945</v>
+        <v>196086705.2617591</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.157857094394767e-15</v>
+        <v>6.063321186486722e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>196086705.2617591</v>
+        <v>44.5196006253703</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.063321186486722e-07</v>
+        <v>0.0001172939962109544</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>44.5196006253703</v>
+        <v>7.944226553745269</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001172939962109544</v>
+        <v>1.292433507652555</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.944226553745269</v>
+        <v>0.007402510374974572</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.292433507652555</v>
+        <v>3.086242336575682</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007402510374974572</v>
+        <v>0.9569115555738658</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.086242336575682</v>
+        <v>1.607178116329785</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9569115555738658</v>
+        <v>13</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.607178116329785</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3214673399756007</v>
       </c>
     </row>
@@ -4881,72 +4833,66 @@
         <v>7.343665551424919e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2335749825130281</v>
+        <v>2.507922270384147e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.149183622159159</v>
+        <v>3.896473552305436e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.507922270384147e-07</v>
+        <v>0.01247017873312181</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.896473552305436e-06</v>
+        <v>0.2499427336862597</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01247017873312181</v>
+        <v>0.06255764038388226</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2499427336862597</v>
+        <v>1.845448809186223</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.06255764038388226</v>
+        <v>1.98163788991728</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.810697921337805</v>
+        <v>4.416514582013466</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.98163788991728</v>
+        <v>9.285210139536558e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.416514582013466</v>
+        <v>239956746.1219132</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>9.285210139536558e-16</v>
+        <v>4.908092456839692e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>239956746.1219132</v>
+        <v>53.46353431622412</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.908092456839692e-07</v>
+        <v>0.0001234936325981158</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>53.46353431622412</v>
+        <v>7.780015324228627</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001234936325981158</v>
+        <v>1.38398276253734</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.780015324228627</v>
+        <v>0.007474901437819701</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.38398276253734</v>
+        <v>3.053396603857998</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007474901437819701</v>
+        <v>0.957220512102706</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.053396603857998</v>
+        <v>1.59071523530275</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.957220512102706</v>
+        <v>13</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.59071523530275</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2871827771837292</v>
       </c>
     </row>
@@ -4961,72 +4907,66 @@
         <v>7.307607969809718e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2305996620031359</v>
+        <v>2.507922270384147e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.133136637843817</v>
+        <v>3.896927117252399e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.507922270384147e-07</v>
+        <v>0.0004479101743064533</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.896927117252399e-06</v>
+        <v>0.2224350910294667</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0004479101743064533</v>
+        <v>0.04942669878090133</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2224350910294667</v>
+        <v>1.831090861929384</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04942669878090133</v>
+        <v>2.059641413003621</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.78887421146034</v>
+        <v>4.395959935567732</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.059641413003621</v>
+        <v>9.3722447862696e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.395959935567732</v>
+        <v>233159242.7789168</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.3722447862696e-16</v>
+        <v>5.030585995880715e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>233159242.7789168</v>
+        <v>50.95055222995109</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.030585995880715e-07</v>
+        <v>0.0001314307244516786</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>50.95055222995109</v>
+        <v>7.848794469059705</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001314307244516786</v>
+        <v>1.483707269638676</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.848794469059705</v>
+        <v>0.008096602440796612</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.483707269638676</v>
+        <v>3.019401959635081</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008096602440796612</v>
+        <v>0.9571211603551714</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.019401959635081</v>
+        <v>1.620196227913297</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9571211603551714</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.620196227913297</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2727345211959299</v>
       </c>
     </row>
@@ -5041,72 +4981,66 @@
         <v>7.310660309708315e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2448250898398798</v>
+        <v>2.507922270384147e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.131383323460931</v>
+        <v>3.896556133744867e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.507922270384147e-07</v>
+        <v>-0.01030250055654706</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.896556133744867e-06</v>
+        <v>0.197359034815188</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01030250055654706</v>
+        <v>0.03902215189037928</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.197359034815188</v>
+        <v>1.81807848790028</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03902215189037928</v>
+        <v>1.997176745879312</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.771188269572471</v>
+        <v>3.812027599810764</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.997176745879312</v>
+        <v>1.246347083183707e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.812027599810764</v>
+        <v>178836994.1854065</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.246347083183707e-15</v>
+        <v>6.544124774901037e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>178836994.1854065</v>
+        <v>39.86150807672869</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.544124774901037e-07</v>
+        <v>0.0001387695769602793</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>39.86150807672869</v>
+        <v>8.290197374633456</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001387695769602793</v>
+        <v>1.499202808525101</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.290197374633456</v>
+        <v>0.009537268408856886</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.499202808525101</v>
+        <v>2.967210052267294</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009537268408856886</v>
+        <v>0.95838690024663</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.967210052267294</v>
+        <v>1.661861793062611</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.95838690024663</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.661861793062611</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2734883304871026</v>
       </c>
     </row>
@@ -5121,72 +5055,66 @@
         <v>7.281047004005302e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2851793011434988</v>
+        <v>2.507922270384147e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.090594929163243</v>
+        <v>3.895483115553128e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.507922270384147e-07</v>
+        <v>-0.01832453671841417</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.895483115553128e-06</v>
+        <v>0.1823233692820235</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01832453671841417</v>
+        <v>0.03356167507034598</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1823233692820235</v>
+        <v>1.788677141128246</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03356167507034598</v>
+        <v>1.976400701000367</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.729795390869098</v>
+        <v>3.748330352111442</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.976400701000367</v>
+        <v>1.289066597617403e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.748330352111442</v>
+        <v>171749108.5486075</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.289066597617403e-15</v>
+        <v>6.766687356837446e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>171749108.5486075</v>
+        <v>38.02457233454156</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.766687356837446e-07</v>
+        <v>0.0001421201527410606</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>38.02457233454156</v>
+        <v>8.971699160865619</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001421201527410606</v>
+        <v>1.414833334119354</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.971699160865619</v>
+        <v>0.01143944804893653</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.414833334119354</v>
+        <v>2.897329414276771</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01143944804893653</v>
+        <v>0.9583527847240727</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.897329414276771</v>
+        <v>1.659595065188036</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9583527847240727</v>
+        <v>6</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.659595065188036</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2688413544129796</v>
       </c>
     </row>
@@ -5201,72 +5129,66 @@
         <v>7.190712063712218e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3277240164391913</v>
+        <v>2.507922270384147e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.006690487113657</v>
+        <v>3.893981305806302e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.507922270384147e-07</v>
+        <v>-0.02257017976741067</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.893981305806302e-06</v>
+        <v>0.1775902006463869</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02257017976741067</v>
+        <v>0.03203542272655725</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1775902006463869</v>
+        <v>1.779419808136843</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03203542272655725</v>
+        <v>1.950802574131176</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.716626872320798</v>
+        <v>3.759308012568201</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.950802574131176</v>
+        <v>1.470876901784099e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.759308012568201</v>
+        <v>151754530.922849</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.470876901784099e-15</v>
+        <v>7.661693314425758e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>151754530.922849</v>
+        <v>33.87346790871948</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.661693314425758e-07</v>
+        <v>0.0001394832046208305</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>33.87346790871948</v>
+        <v>9.127128519509595</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001394832046208305</v>
+        <v>1.459059868640738</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.127128519509595</v>
+        <v>0.0116195751338802</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.459059868640738</v>
+        <v>2.899909263603689</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0116195751338802</v>
+        <v>0.9596212843288919</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.899909263603689</v>
+        <v>1.66453827562124</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9596212843288919</v>
+        <v>6</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.66453827562124</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2686209357180177</v>
       </c>
     </row>
@@ -5281,72 +5203,66 @@
         <v>7.032292087762929e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3461405391472338</v>
+        <v>2.507922270384147e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9192430511969865</v>
+        <v>3.892289312426956e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.507922270384147e-07</v>
+        <v>-0.02448885402221473</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.892289312426956e-06</v>
+        <v>0.1789204069019489</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02448885402221473</v>
+        <v>0.03259921023804457</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1789204069019489</v>
+        <v>1.772832103945584</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03259921023804457</v>
+        <v>1.946289749905876</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.712614473164728</v>
+        <v>3.597896324494362</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.946289749905876</v>
+        <v>1.665468329087893e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.597896324494362</v>
+        <v>135881578.2804922</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.665468329087893e-15</v>
+        <v>8.573557449731065e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>135881578.2804922</v>
+        <v>30.7508796573019</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.573557449731065e-07</v>
+        <v>0.0001359096860140138</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>30.7508796573019</v>
+        <v>8.752365922959198</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001359096860140138</v>
+        <v>1.490352765322302</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.752365922959198</v>
+        <v>0.01041121325352889</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.490352765322302</v>
+        <v>2.962820332977181</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01041121325352889</v>
+        <v>0.959625608182709</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.962820332977181</v>
+        <v>1.675897284785903</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.959625608182709</v>
+        <v>6</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.675897284785903</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.25730194327541</v>
       </c>
     </row>
@@ -5361,72 +5277,66 @@
         <v>6.818310114239033e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3162535101879682</v>
+        <v>2.507922270384147e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.9008177648398523</v>
+        <v>3.890628857834641e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.507922270384147e-07</v>
+        <v>-0.02265400530561632</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.890628857834641e-06</v>
+        <v>0.188300452464028</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02265400530561632</v>
+        <v>0.03596336351628023</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.188300452464028</v>
+        <v>1.744434951746557</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03596336351628023</v>
+        <v>1.933132037160898</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.668682664287748</v>
+        <v>3.475432264119067</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.933132037160898</v>
+        <v>1.784908718187141e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.475432264119067</v>
+        <v>128700046.8283762</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.784908718187141e-15</v>
+        <v>8.987078463874917e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>128700046.8283762</v>
+        <v>29.56469620097171</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.987078463874917e-07</v>
+        <v>0.0001418094411704493</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>29.56469620097171</v>
+        <v>8.81376212888356</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001418094411704493</v>
+        <v>1.496328567473283</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.81376212888356</v>
+        <v>0.01101609813899842</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.496328567473283</v>
+        <v>2.886032489723137</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01101609813899842</v>
+        <v>0.9607806349059351</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.886032489723137</v>
+        <v>1.702732646260029</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9607806349059351</v>
+        <v>7</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.702732646260029</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2454467409958288</v>
       </c>
     </row>
@@ -5441,72 +5351,66 @@
         <v>6.609164398671844e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2512772697876458</v>
+        <v>2.46241216754907e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9644964367770044</v>
+        <v>3.889274176100214e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.46241216754907e-07</v>
+        <v>-0.01713620751663958</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.889274176100214e-06</v>
+        <v>0.1986739129786526</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01713620751663958</v>
+        <v>0.03975749873452825</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1986739129786526</v>
+        <v>1.727537738850927</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03975749873452825</v>
+        <v>1.902568782087243</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.643544698126792</v>
+        <v>3.382886815883372</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.902568782087243</v>
+        <v>1.88390384713825e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.382886815883372</v>
+        <v>121574237.1692365</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.88390384713825e-15</v>
+        <v>9.480716107562408e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>121574237.1692365</v>
+        <v>27.8446548822673</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.480716107562408e-07</v>
+        <v>0.0001565287764942394</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>27.8446548822673</v>
+        <v>9.438021804532191</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001565287764942394</v>
+        <v>1.468481830563866</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.438021804532191</v>
+        <v>0.01394299730106777</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.468481830563866</v>
+        <v>2.679968544737692</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01394299730106777</v>
+        <v>0.9602552977283773</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.679968544737692</v>
+        <v>1.71078026745178</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9602552977283773</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.71078026745178</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2473836961889801</v>
       </c>
     </row>
@@ -5521,72 +5425,66 @@
         <v>6.463813525646951e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.1898229566654552</v>
+        <v>2.34731357880837e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.047035550207579</v>
+        <v>3.888416870176973e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.34731357880837e-07</v>
+        <v>-0.00857708860343805</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.888416870176973e-06</v>
+        <v>0.2076795674270379</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.00857708860343805</v>
+        <v>0.04319110881957988</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2076795674270379</v>
+        <v>1.71192368640169</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.04319110881957988</v>
+        <v>1.838271203742397</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.620249000105423</v>
+        <v>3.298204473962438</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.838271203742397</v>
+        <v>2.010283991520281e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.298204473962438</v>
+        <v>113526285.6648004</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.010283991520281e-15</v>
+        <v>1.008372467826024e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>113526285.6648004</v>
+        <v>25.9089773935522</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.008372467826024e-06</v>
+        <v>0.0001622244965185603</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>25.9089773935522</v>
+        <v>9.714007118647</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001622244965185603</v>
+        <v>1.45599665270257</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.714007118647</v>
+        <v>0.0153078172825174</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.45599665270257</v>
+        <v>2.644035273870804</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0153078172825174</v>
+        <v>0.9584787612194774</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.644035273870804</v>
+        <v>1.765502314523146</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9584787612194774</v>
+        <v>10</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.765502314523146</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2530681758760531</v>
       </c>
     </row>
@@ -5601,72 +5499,66 @@
         <v>6.420661167475618e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1678751484798556</v>
+        <v>2.264569007082121e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.08177544023493</v>
+        <v>3.888178270890308e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.264569007082121e-07</v>
+        <v>0.0008810220260853902</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.888178270890308e-06</v>
+        <v>0.2139746056973046</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.0008810220260853902</v>
+        <v>0.04577731947748983</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2139746056973046</v>
+        <v>1.65057070094093</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04577731947748983</v>
+        <v>1.658480876431069</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.551382108079405</v>
+        <v>4.127722892228245</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.658480876431069</v>
+        <v>2.39810407016831e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.127722892228245</v>
+        <v>96108406.39303136</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.39810407016831e-15</v>
+        <v>1.164332050887134e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>96108406.39303136</v>
+        <v>22.15086949703407</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.164332050887134e-06</v>
+        <v>0.0001406565397867965</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>22.15086949703407</v>
+        <v>8.941862965320071</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001406565397867965</v>
+        <v>1.497782531688517</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.941862965320071</v>
+        <v>0.01124646275548346</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.497782531688517</v>
+        <v>2.944199006986446</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01124646275548346</v>
+        <v>0.9531985664003303</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.944199006986446</v>
+        <v>1.788146173257778</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9531985664003303</v>
+        <v>11</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.788146173257778</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2618287401579157</v>
       </c>
     </row>
@@ -5681,72 +5573,66 @@
         <v>6.474769474409086e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1985770261126538</v>
+        <v>2.421204176606387e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.025765140053496</v>
+        <v>3.888459859350587e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.421204176606387e-07</v>
+        <v>0.007369853283972471</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.888459859350587e-06</v>
+        <v>0.2135396387011171</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.007369853283972471</v>
+        <v>0.04565010849105011</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2135396387011171</v>
+        <v>1.653156176543376</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04565010849105011</v>
+        <v>1.876303137252102</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.556751347684213</v>
+        <v>3.762848031387622</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.876303137252102</v>
+        <v>2.895791147778231e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.762848031387622</v>
+        <v>78831346.94251496</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.895791147778231e-15</v>
+        <v>1.414625045134251e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>78831346.94251496</v>
+        <v>17.99555024386006</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.414625045134251e-06</v>
+        <v>0.0001045774215445811</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>17.99555024386006</v>
+        <v>6.384384318710953</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001045774215445811</v>
+        <v>1.698688176629262</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>6.384384318710953</v>
+        <v>0.004262613677251876</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.698688176629262</v>
+        <v>3.393702189568355</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.004262613677251876</v>
+        <v>0.954727376776872</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.393702189568355</v>
+        <v>1.776254778468029</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.954727376776872</v>
+        <v>10</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.776254778468029</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2667070902269779</v>
       </c>
     </row>
@@ -5761,72 +5647,66 @@
         <v>6.596759733727582e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2644588528371828</v>
+        <v>2.533655931885817e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.9061985230073892</v>
+        <v>3.889096775161606e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.533655931885817e-07</v>
+        <v>0.01188222928334783</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.889096775161606e-06</v>
+        <v>0.210056376994188</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.01188222928334783</v>
+        <v>0.04426295253278181</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.210056376994188</v>
+        <v>1.633986776538408</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04426295253278181</v>
+        <v>1.755427509149075</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.534446633626903</v>
+        <v>3.883121662307039</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.755427509149075</v>
+        <v>2.719184016903311e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.883121662307039</v>
+        <v>83262227.55760825</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.719184016903311e-15</v>
+        <v>1.335562077767027e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>83262227.55760825</v>
+        <v>18.8510111397424</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.335562077767027e-06</v>
+        <v>9.476629938303252e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>18.8510111397424</v>
+        <v>6.280772435598041</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>9.476629938303252e-05</v>
+        <v>1.59112901142797</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>6.280772435598041</v>
+        <v>0.003738350680971756</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.59112901142797</v>
+        <v>3.373754213478077</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.003738350680971756</v>
+        <v>0.9536279079712753</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.373754213478077</v>
+        <v>1.823510541725228</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9536279079712753</v>
+        <v>12</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.823510541725228</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2833790182403543</v>
       </c>
     </row>
@@ -5841,72 +5721,66 @@
         <v>6.764135151705347e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3463503392819466</v>
+        <v>2.608417304418053e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7636453063226876</v>
+        <v>3.889979788631588e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.608417304418053e-07</v>
+        <v>0.01412778825661035</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.889979788631588e-06</v>
+        <v>0.2051232523199936</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.01412778825661035</v>
+        <v>0.04227475439014471</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2051232523199936</v>
+        <v>1.640884989483101</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.04227475439014471</v>
+        <v>1.80828617298516</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.545343116289439</v>
+        <v>3.826297889731142</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.80828617298516</v>
+        <v>2.800548109761637e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.826297889731142</v>
+        <v>84038161.18425736</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.800548109761637e-15</v>
+        <v>1.332208272818489e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>84038161.18425736</v>
+        <v>19.77862607589869</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.332208272818489e-06</v>
+        <v>9.785831778466508e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>19.77862607589869</v>
+        <v>6.564108472185852</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.785831778466508e-05</v>
+        <v>1.435427609427542</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.564108472185852</v>
+        <v>0.004216472228101171</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.435427609427542</v>
+        <v>3.202983205528829</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.004216472228101171</v>
+        <v>0.9544854396773015</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.202983205528829</v>
+        <v>1.794082218182856</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9544854396773015</v>
+        <v>11</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.794082218182856</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2881215301074767</v>
       </c>
     </row>
@@ -5921,72 +5795,66 @@
         <v>6.952295457658816e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.4259780102445364</v>
+        <v>2.652867462847088e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.6388009846289004</v>
+        <v>3.890992990853378e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.652867462847088e-07</v>
+        <v>0.01563228444721182</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.890992990853378e-06</v>
+        <v>0.1994639595168171</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.01563228444721182</v>
+        <v>0.04002924186904268</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1994639595168171</v>
+        <v>1.632450033256424</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.04002924186904268</v>
+        <v>1.682594160635724</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.541210873846953</v>
+        <v>3.853071979672385</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.682594160635724</v>
+        <v>2.761762636353808e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.853071979672385</v>
+        <v>84848235.63486503</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.761762636353808e-15</v>
+        <v>1.315711219029832e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>84848235.63486503</v>
+        <v>19.88254534170306</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.315711219029832e-06</v>
+        <v>9.593719285652445e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>19.88254534170306</v>
+        <v>6.001747934865285</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.593719285652445e-05</v>
+        <v>1.322250736408147</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.001747934865285</v>
+        <v>0.003455751539520768</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.322250736408147</v>
+        <v>3.266853922365546</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.003455751539520768</v>
+        <v>0.954364215250776</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.266853922365546</v>
+        <v>1.781230478109063</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.954364215250776</v>
+        <v>12</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.781230478109063</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2838547372173902</v>
       </c>
     </row>
@@ -6001,72 +5869,66 @@
         <v>7.166981694594597e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.4978212100281426</v>
+        <v>2.70847219615883e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.5514121010309081</v>
+        <v>3.892209766161017e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.70847219615883e-07</v>
+        <v>0.01923658860109972</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.892209766161017e-06</v>
+        <v>0.1921627666729026</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.01923658860109972</v>
+        <v>0.03729282303479042</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1921627666729026</v>
+        <v>1.639026750359891</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03729282303479042</v>
+        <v>1.674043016871564</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.544974484696515</v>
+        <v>4.09995656815596</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.674043016871564</v>
+        <v>2.703903963002431e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.09995656815596</v>
+        <v>91369455.76223128</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.703903963002431e-15</v>
+        <v>1.233060737521041e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>91369455.76223128</v>
+        <v>22.57321086165375</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.233060737521041e-06</v>
+        <v>9.036364093339669e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>22.57321086165375</v>
+        <v>5.446176118117772</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>9.036364093339669e-05</v>
+        <v>1.390704132404345</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>5.446176118117772</v>
+        <v>0.002680260981333724</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.390704132404345</v>
+        <v>3.438124707639072</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.002680260981333724</v>
+        <v>0.9537137764415239</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.438124707639072</v>
+        <v>1.798378774740016</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9537137764415239</v>
+        <v>12</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.798378774740016</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2756004667790115</v>
       </c>
     </row>
@@ -6081,72 +5943,66 @@
         <v>7.433068869079711e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.5639093158216342</v>
+        <v>2.848511725957673e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.4967736633023883</v>
+        <v>3.89382184719767e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.848511725957673e-07</v>
+        <v>0.02533485021392132</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.89382184719767e-06</v>
+        <v>0.1840452363759529</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.02533485021392132</v>
+        <v>0.0345062968934546</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1840452363759529</v>
+        <v>1.639143324590724</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.0345062968934546</v>
+        <v>1.726170764315519</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.539044598939257</v>
+        <v>4.657370775798904</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.726170764315519</v>
+        <v>3.723629976933586e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.657370775798904</v>
+        <v>66300644.96277539</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.723629976933586e-15</v>
+        <v>1.7072632869662e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>66300644.96277539</v>
+        <v>16.3682415073774</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.7072632869662e-06</v>
+        <v>9.230620969549459e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>16.3682415073774</v>
+        <v>6.273675581896019</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>9.230620969549459e-05</v>
+        <v>2.374326985453632</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>6.273675581896019</v>
+        <v>0.003633080597262798</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>2.374326985453632</v>
+        <v>3.593155850641021</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.003633080597262798</v>
+        <v>0.9531806304814726</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.593155850641021</v>
+        <v>1.793772717899719</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9531806304814726</v>
+        <v>12</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.793772717899719</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2598906397008319</v>
       </c>
     </row>
@@ -6161,72 +6017,66 @@
         <v>7.790180579747883e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.6387977516319822</v>
+        <v>3.145212388744068e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.4175116132339136</v>
+        <v>3.896061927486673e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.145212388744068e-07</v>
+        <v>0.0339923016638456</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.896061927486673e-06</v>
+        <v>0.1790546972349426</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.0339923016638456</v>
+        <v>0.03319684536338947</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1790546972349426</v>
+        <v>1.643625149252252</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03319684536338947</v>
+        <v>1.547337497309322</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.542608480156095</v>
+        <v>4.476089073552953</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.547337497309322</v>
+        <v>5.862728497133056e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.476089073552953</v>
+        <v>42066111.63238923</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.862728497133056e-15</v>
+        <v>2.697295962050104e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>42066111.63238923</v>
+        <v>10.37443663575202</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.697295962050104e-06</v>
+        <v>0.0001193823442600805</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>10.37443663575202</v>
+        <v>10.24188816108506</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001193823442600805</v>
+        <v>1.68200166389191</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.24188816108506</v>
+        <v>0.01252276298732196</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.68200166389191</v>
+        <v>3.421583049206793</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01252276298732196</v>
+        <v>0.9519676158861528</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.421583049206793</v>
+        <v>1.760881995626953</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9519676158861528</v>
+        <v>11</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.760881995626953</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2375415423270884</v>
       </c>
     </row>
@@ -6241,72 +6091,66 @@
         <v>8.306901614505014e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.7568130837417217</v>
+        <v>3.657980441614869e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.1681007244306776</v>
+        <v>3.899230706895806e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.657980441614869e-07</v>
+        <v>0.04522016767742176</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.899230706895806e-06</v>
+        <v>0.1819396813921575</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.04522016767742176</v>
+        <v>0.0351078967507538</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1819396813921575</v>
+        <v>1.636351399767769</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0351078967507538</v>
+        <v>1.515608747458414</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.537180526902009</v>
+        <v>4.122295717288808</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.515608747458414</v>
+        <v>8.394204523230545e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.122295717288808</v>
+        <v>29434739.5914183</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>8.394204523230545e-15</v>
+        <v>3.803861716261421e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>29434739.5914183</v>
+        <v>7.27277149279734</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.803861716261421e-06</v>
+        <v>0.0001259137537623883</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.27277149279734</v>
+        <v>11.368399439802</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001259137537623883</v>
+        <v>1.383434985255045</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.368399439802</v>
+        <v>0.01627315722630995</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.383434985255045</v>
+        <v>3.262719866594303</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01627315722630995</v>
+        <v>0.950166178523711</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.262719866594303</v>
+        <v>1.802409277609216</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.950166178523711</v>
+        <v>11</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.802409277609216</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2143566738488311</v>
       </c>
     </row>
@@ -6321,72 +6165,66 @@
         <v>9.070406049336746e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.9549080753257541</v>
+        <v>4.294923661201189e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.442642186537316</v>
+        <v>3.903641892895807e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.294923661201189e-07</v>
+        <v>0.05564626258178724</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.903641892895807e-06</v>
+        <v>0.184998149457755</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.05564626258178724</v>
+        <v>0.03729439872109144</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.184998149457755</v>
+        <v>1.527747380506007</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03729439872109144</v>
+        <v>1.523508217284262</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.437037895841527</v>
+        <v>5.06871631020691</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.523508217284262</v>
+        <v>1.023533384215767e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.06871631020691</v>
+        <v>26781635.45968052</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.023533384215767e-14</v>
+        <v>3.789806714343997e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>26781635.45968052</v>
+        <v>7.341354588747484</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.789806714343997e-06</v>
+        <v>0.0001191308427771824</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>7.341354588747484</v>
+        <v>11.20534165897935</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001191308427771824</v>
+        <v>1.154819276990951</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.20534165897935</v>
+        <v>0.01495803069909555</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.154819276990951</v>
+        <v>3.076286348698958</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01495803069909555</v>
+        <v>0.9348870274228529</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.076286348698958</v>
+        <v>1.851371868771114</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9348870274228529</v>
+        <v>11</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.851371868771114</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2120968649933045</v>
       </c>
     </row>
@@ -6401,72 +6239,66 @@
         <v>1.003275844716549e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.160935804309273</v>
+        <v>4.718781776630688e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.106569380851007</v>
+        <v>3.909188126434438e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.718781776630688e-07</v>
+        <v>0.05943695078443222</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.909188126434438e-06</v>
+        <v>0.1725779445033743</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.05943695078443222</v>
+        <v>0.03331042540874977</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1725779445033743</v>
+        <v>1.523577078343649</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03331042540874977</v>
+        <v>1.458121829426115</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.432407956653609</v>
+        <v>4.432817530785027</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.458121829426115</v>
+        <v>1.665743333999669e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.432817530785027</v>
+        <v>16767065.49348079</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.665743333999669e-14</v>
+        <v>6.06636014283675e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>16767065.49348079</v>
+        <v>4.682978947837277</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>6.06636014283675e-06</v>
+        <v>0.0001528274243908048</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>4.682978947837277</v>
+        <v>8.952936382629044</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001528274243908048</v>
+        <v>1.554454538084938</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.952936382629044</v>
+        <v>0.01224989288031149</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.554454538084938</v>
+        <v>3.120293406186928</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01224989288031149</v>
+        <v>0.9338420590459419</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.120293406186928</v>
+        <v>1.888247169236271</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9338420590459419</v>
+        <v>11</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.888247169236271</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1706635448187844</v>
       </c>
     </row>
@@ -6481,72 +6313,66 @@
         <v>1.102085337233268e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.272983940429044</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.349644734258268</v>
+        <v>3.915400968842895e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.05784772466064493</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.915400968842895e-06</v>
+        <v>0.1562748121708911</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.05784772466064493</v>
+        <v>0.02776797795945384</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1562748121708911</v>
+        <v>1.50354494438429</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02776797795945384</v>
+        <v>1.439459158358217</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.411664068853238</v>
+        <v>4.028228311969727</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.439459158358217</v>
+        <v>2.219233040790552e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.028228311969727</v>
+        <v>12248906.08820829</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.219233040790552e-14</v>
+        <v>8.147362931491485e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>12248906.08820829</v>
+        <v>3.32964183532061</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>8.147362931491485e-06</v>
+        <v>0.0001658149400581231</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>3.32964183532061</v>
+        <v>8.618262444353183</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001658149400581231</v>
+        <v>1.609582446331711</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.618262444353183</v>
+        <v>0.0123158130699699</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.609582446331711</v>
+        <v>3.031754401020362</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0123158130699699</v>
+        <v>0.9316085979619263</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.031754401020362</v>
+        <v>1.919278938763339</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9316085979619263</v>
+        <v>11</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.919278938763339</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.153714222821795</v>
       </c>
     </row>
@@ -6561,72 +6387,66 @@
         <v>1.187747176815733e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.276717939105352</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1.16577455475506</v>
+        <v>3.921749917115343e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.05236840712945515</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.921749917115343e-06</v>
+        <v>0.1469317914865221</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.05236840712945515</v>
+        <v>0.02432581744660444</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1469317914865221</v>
+        <v>1.509928771150793</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02432581744660444</v>
+        <v>1.512699854339849</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.419178342154905</v>
+        <v>3.616032770110805</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.512699854339849</v>
+        <v>2.827616369732125e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.616032770110805</v>
+        <v>9554053.001452956</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.827616369732125e-14</v>
+        <v>1.042537952140686e-05</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>9554053.001452956</v>
+        <v>2.581046207744106</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.042537952140686e-05</v>
+        <v>0.0001600720047226958</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2.581046207744106</v>
+        <v>9.334532758731422</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001600720047226958</v>
+        <v>1.330207974607376</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.334532758731422</v>
+        <v>0.01394763431544915</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.330207974607376</v>
+        <v>2.927483912158222</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01394763431544915</v>
+        <v>0.9312067323170289</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.927483912158222</v>
+        <v>1.904478782885167</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9312067323170289</v>
+        <v>10</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.904478782885167</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1517440488912408</v>
       </c>
     </row>
@@ -6641,72 +6461,66 @@
         <v>1.249629129466055e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.205297606235361</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.7778112082086901</v>
+        <v>3.927678459262936e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.04454138090744855</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.927678459262936e-06</v>
+        <v>0.1493465895513879</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04454138090744855</v>
+        <v>0.02427590841043025</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1493465895513879</v>
+        <v>1.487042414543165</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02427590841043025</v>
+        <v>1.457736069296908</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.400808979965909</v>
+        <v>3.506118895996236</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.457736069296908</v>
+        <v>3.007682048252615e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.506118895996236</v>
+        <v>9387930.856262164</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.007682048252615e-14</v>
+        <v>1.055473098563672e-05</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>9387930.856262164</v>
+        <v>2.650767811324807</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.055473098563672e-05</v>
+        <v>0.0001597231584792835</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>2.650767811324807</v>
+        <v>10.67942326943158</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001597231584792835</v>
+        <v>1.125402711998148</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.67942326943158</v>
+        <v>0.0182164392208646</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.125402711998148</v>
+        <v>2.741117658078626</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0182164392208646</v>
+        <v>0.9264870999712286</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.741117658078626</v>
+        <v>1.892350802315463</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9264870999712286</v>
+        <v>7</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.892350802315463</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1572211532421652</v>
       </c>
     </row>
@@ -6721,72 +6535,66 @@
         <v>1.287015998461807e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.106762530457119</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.4084554193314314</v>
+        <v>3.932822781991877e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.03654371891970189</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.932822781991877e-06</v>
+        <v>0.1573124803950718</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.03654371891970189</v>
+        <v>0.02607059722708438</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1573124803950718</v>
+        <v>1.475911640756107</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02607059722708438</v>
+        <v>1.452877131167779</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.389813803707227</v>
+        <v>3.544670176177108</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.452877131167779</v>
+        <v>2.942615646821302e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.544670176177108</v>
+        <v>9802172.239444919</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.942615646821302e-14</v>
+        <v>1.013164048506787e-05</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>9802172.239444919</v>
+        <v>2.827341050950888</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.013164048506787e-05</v>
+        <v>0.0001704556874632087</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2.827341050950888</v>
+        <v>11.40154957068275</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001704556874632087</v>
+        <v>1.099554854155976</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.40154957068275</v>
+        <v>0.02215844378751241</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.099554854155976</v>
+        <v>2.598367419500994</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02215844378751241</v>
+        <v>0.9258535253981005</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.598367419500994</v>
+        <v>1.916819741592721</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9258535253981005</v>
+        <v>8</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.916819741592721</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1547209814031427</v>
       </c>
     </row>
@@ -6801,72 +6609,66 @@
         <v>1.306311048357144e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.013607322060949</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.1461094363336111</v>
+        <v>3.937099687268514e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.02949558064180828</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.937099687268514e-06</v>
+        <v>0.1646509356225356</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.02949558064180828</v>
+        <v>0.02797121735368448</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1646509356225356</v>
+        <v>1.509707611137144</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02797121735368448</v>
+        <v>1.476360986987403</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.421204260943429</v>
+        <v>3.489752404005843</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.476360986987403</v>
+        <v>3.035959489396224e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.489752404005843</v>
+        <v>9620248.197493462</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.035959489396224e-14</v>
+        <v>1.062078530210742e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>9620248.197493462</v>
+        <v>2.809755472348845</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.062078530210742e-05</v>
+        <v>0.0001918128874829051</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>2.809755472348845</v>
+        <v>10.19349868684772</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001918128874829051</v>
+        <v>1.298108530936398</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>10.19349868684772</v>
+        <v>0.01993078139386805</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.298108530936398</v>
+        <v>2.685173065087417</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01993078139386805</v>
+        <v>0.9300112056340873</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.685173065087417</v>
+        <v>1.874998843196576</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9300112056340873</v>
+        <v>7</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.874998843196576</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1348882492587778</v>
       </c>
     </row>
@@ -6881,72 +6683,66 @@
         <v>1.314558614082479e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.9373965529289521</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.01615828192808255</v>
+        <v>3.940562105144916e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.02342878590730331</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.940562105144916e-06</v>
+        <v>0.1698595283154831</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.02342878590730331</v>
+        <v>0.0293957566484108</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1698595283154831</v>
+        <v>1.522237254846917</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.0293957566484108</v>
+        <v>1.517968845607903</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.436789656964401</v>
+        <v>3.421707498404097</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.517968845607903</v>
+        <v>3.15790775215488e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.421707498404097</v>
+        <v>9201395.096880592</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.15790775215488e-14</v>
+        <v>1.110158359858436e-05</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>9201395.096880592</v>
+        <v>2.67366381094088</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.110158359858436e-05</v>
+        <v>0.0002064686165607905</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>2.67366381094088</v>
+        <v>9.362772307181768</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0002064686165607905</v>
+        <v>1.514325212405668</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.362772307181768</v>
+        <v>0.01809934971999896</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.514325212405668</v>
+        <v>2.696948533646781</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01809934971999896</v>
+        <v>0.9323919957496446</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.696948533646781</v>
+        <v>1.872143109107676</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9323919957496446</v>
+        <v>7</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.872143109107676</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1266614711741472</v>
       </c>
     </row>
@@ -6961,72 +6757,66 @@
         <v>1.317150340083816e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.878554360583175</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.111357336716754</v>
+        <v>3.943292982725364e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.01815805145534974</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.943292982725364e-06</v>
+        <v>0.1727566532574141</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.01815805145534974</v>
+        <v>0.03017141446193274</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1727566532574141</v>
+        <v>1.541906915885114</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.03017141446193274</v>
+        <v>1.535829706071371</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.456972037029099</v>
+        <v>3.34889110755652</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.535829706071371</v>
+        <v>3.296728251931324e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.34889110755652</v>
+        <v>8839880.518779291</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.296728251931324e-14</v>
+        <v>1.161148090413598e-05</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>8839880.518779291</v>
+        <v>2.576178432301789</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.161148090413598e-05</v>
+        <v>0.0001813335061445397</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>2.576178432301789</v>
+        <v>9.744673326095393</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001813335061445397</v>
+        <v>1.310677529428602</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.744673326095393</v>
+        <v>0.01721918643604674</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.310677529428602</v>
+        <v>2.739903475402502</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01721918643604674</v>
+        <v>0.9327677475078023</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.739903475402502</v>
+        <v>1.91121355759587</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9327677475078023</v>
+        <v>5</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.91121355759587</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1362802347005495</v>
       </c>
     </row>
@@ -7041,72 +6831,66 @@
         <v>1.317687192079766e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.8339334478169983</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.1695265463288487</v>
+        <v>3.945365317227146e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.0133077328853983</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>3.945365317227146e-06</v>
+        <v>0.1735219928598178</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.0133077328853983</v>
+        <v>0.03028414401531121</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1735219928598178</v>
+        <v>1.539437509271431</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.03028414401531121</v>
+        <v>1.507757652893957</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.453142751848738</v>
+        <v>3.306720059736297</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.507757652893957</v>
+        <v>3.381351681801185e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.306720059736297</v>
+        <v>8390434.199591801</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.381351681801185e-14</v>
+        <v>1.214005696455894e-05</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>8390434.199591801</v>
+        <v>2.380450824439061</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.214005696455894e-05</v>
+        <v>0.0001723618041455165</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>2.380450824439061</v>
+        <v>11.21260979622893</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001723618041455165</v>
+        <v>1.095624634811891</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>11.21260979622893</v>
+        <v>0.02166977733664579</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.095624634811891</v>
+        <v>2.571601151351359</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.02166977733664579</v>
+        <v>0.9333851236593103</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.571601151351359</v>
+        <v>1.914559773509123</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9333851236593103</v>
+        <v>5</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.914559773509123</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1493541597388785</v>
       </c>
     </row>
@@ -7121,72 +6905,66 @@
         <v>1.318137990947037e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.8018885479783537</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.2086335490234781</v>
+        <v>3.946789547450819e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.008247286037471782</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.946789547450819e-06</v>
+        <v>0.1720480232838323</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.008247286037471782</v>
+        <v>0.02966397079851909</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1720480232838323</v>
+        <v>1.546964639905768</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02966397079851909</v>
+        <v>1.484418714199757</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.46138841215126</v>
+        <v>3.276310757055708</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.484418714199757</v>
+        <v>3.444411471276567e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.276310757055708</v>
+        <v>8247150.519879646</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.444411471276567e-14</v>
+        <v>1.238329004457678e-05</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>8247150.519879646</v>
+        <v>2.342733398275612</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.238329004457678e-05</v>
+        <v>0.0001781607257952483</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>2.342733398275612</v>
+        <v>11.61693001656274</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001781607257952483</v>
+        <v>1.082680422169471</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>11.61693001656274</v>
+        <v>0.02404333565410292</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.082680422169471</v>
+        <v>2.530256629411534</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02404333565410292</v>
+        <v>0.9343630101319991</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.530256629411534</v>
+        <v>1.883959882369525</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9343630101319991</v>
+        <v>2</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.883959882369525</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1471789891842906</v>
       </c>
     </row>
@@ -7201,72 +6979,66 @@
         <v>1.318956256956266e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.7840815519835873</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.2331359638502453</v>
+        <v>3.94752348614337e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.003056451291695449</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.94752348614337e-06</v>
+        <v>0.1682993806906882</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.003056451291695449</v>
+        <v>0.02832951264854747</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1682993806906882</v>
+        <v>1.543459919025576</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02832951264854747</v>
+        <v>1.417728400580671</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.462184919378209</v>
+        <v>3.261719346519284</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.417728400580671</v>
+        <v>3.475297782293692e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.261719346519284</v>
+        <v>7996486.011513921</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.475297782293692e-14</v>
+        <v>1.258524185982049e-05</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>7996486.011513921</v>
+        <v>2.222237064778904</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.258524185982049e-05</v>
+        <v>0.0001960062192233884</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>2.222237064778904</v>
+        <v>10.69377964734688</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001960062192233884</v>
+        <v>1.24139745792804</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.69377964734688</v>
+        <v>0.02241466814786911</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.24139745792804</v>
+        <v>2.622836383694914</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02241466814786911</v>
+        <v>0.9353209721509866</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.622836383694914</v>
+        <v>1.899718740497596</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9353209721509866</v>
+        <v>2</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.899718740497596</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1319322956404819</v>
       </c>
     </row>
@@ -7281,72 +7053,66 @@
         <v>1.31937838224294e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.779258821609178</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.2410806158299055</v>
+        <v>3.947710677396373e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.0003858743734851058</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>3.947710677396373e-06</v>
+        <v>0.1665783663757286</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.0003858743734851058</v>
+        <v>0.02774809472687265</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1665783663757286</v>
+        <v>1.522584040501563</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.02774809472687265</v>
+        <v>1.375219841808652</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.441650522090505</v>
+        <v>3.313300620146832</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.375219841808652</v>
+        <v>3.367933586089754e-14</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.313300620146832</v>
+        <v>8109877.359760136</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>3.367933586089754e-14</v>
+        <v>1.230833527934521e-05</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>8109877.359760136</v>
+        <v>2.215093650916641</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.230833527934521e-05</v>
+        <v>0.0002312309110746348</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>2.215093650916641</v>
+        <v>9.777645554355795</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0002312309110746348</v>
+        <v>1.512267834944455</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.777645554355795</v>
+        <v>0.02210621908948114</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.512267834944455</v>
+        <v>2.531899104616797</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.02210621908948114</v>
+        <v>0.9363305474960801</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.531899104616797</v>
+        <v>1.894856272860347</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9363305474960801</v>
+        <v>5</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.894856272860347</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.1178680609160542</v>
       </c>
     </row>
@@ -7361,72 +7127,66 @@
         <v>1.31947743825539e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.7783623679755437</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.2427005490059204</v>
+        <v>3.947745175686286e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.0004353406485328804</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>3.947745175686286e-06</v>
+        <v>0.1664942381289322</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.0004353406485328804</v>
+        <v>0.02772031306325261</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1664942381289322</v>
+        <v>1.525764632562852</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.02772031306325261</v>
+        <v>1.350476497082847</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.44844808471584</v>
+        <v>3.467554365736617</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.350476497082847</v>
+        <v>3.07495415168465e-14</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.467554365736617</v>
+        <v>8968599.909594147</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>3.07495415168465e-14</v>
+        <v>1.117704071125513e-05</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>8968599.909594147</v>
+        <v>2.473363489952886</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.117704071125513e-05</v>
+        <v>0.0002188969849447411</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>2.473363489952886</v>
+        <v>10.09218418805795</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0002188969849447411</v>
+        <v>1.373550253942182</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>10.09218418805795</v>
+        <v>0.02229513548104083</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.373550253942182</v>
+        <v>2.5019548791451</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.02229513548104083</v>
+        <v>0.9358148519827245</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.5019548791451</v>
+        <v>1.871544009850543</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9358148519827245</v>
+        <v>5</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.871544009850543</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.1206226513172412</v>
       </c>
     </row>
@@ -7441,72 +7201,66 @@
         <v>1.319738766917638e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.7756881719105698</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.2472814899559368</v>
+        <v>3.947850161016393e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.001089040795644436</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>3.947850161016393e-06</v>
+        <v>0.1662265297775379</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.001089040795644436</v>
+        <v>0.02763144403538677</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1662265297775379</v>
+        <v>1.542648041153529</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.02763144403538677</v>
+        <v>1.365696246540387</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.466276060811451</v>
+        <v>3.344976838666746</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.365696246540387</v>
+        <v>2.580352648110721e-14</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.344976838666746</v>
+        <v>10636508.98292587</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>2.580352648110721e-14</v>
+        <v>9.517777664230143e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>10636508.98292587</v>
+        <v>2.919290311851991</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>9.517777664230143e-06</v>
+        <v>0.0002038625456751694</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>2.919290311851991</v>
+        <v>12.02631561127541</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0002038625456751694</v>
+        <v>1.058791383514549</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>12.02631561127541</v>
+        <v>0.02948510217449512</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.058791383514549</v>
+        <v>2.301840076073413</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.02948510217449512</v>
+        <v>0.9390614258866352</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.301840076073413</v>
+        <v>1.91162391538515</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9390614258866352</v>
+        <v>5</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.91162391538515</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.1331504686107604</v>
       </c>
     </row>
@@ -7521,72 +7275,66 @@
         <v>1.320040302580827e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.7711712142990351</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.254002264357704</v>
+        <v>3.948032589712053e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.001718440945073978</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>3.948032589712053e-06</v>
+        <v>0.1657934489330817</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.001718440945073978</v>
+        <v>0.02748876655241479</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1657934489330817</v>
+        <v>1.654350465148946</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.02748876655241479</v>
+        <v>1.445775605671737</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.570750343045522</v>
+        <v>3.016662951039144</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.445775605671737</v>
+        <v>2.462207578834786e-14</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.016662951039144</v>
+        <v>10189071.39370715</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2.462207578834786e-14</v>
+        <v>1.102622917447865e-05</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>10189071.39370715</v>
+        <v>2.556194372306399</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.102622917447865e-05</v>
+        <v>0.0002109981185273958</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>2.556194372306399</v>
+        <v>12.59346025672113</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0002109981185273958</v>
+        <v>1.029540129024721</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>12.59346025672113</v>
+        <v>0.03346329750853513</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.029540129024721</v>
+        <v>2.250837910897403</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.03346329750853513</v>
+        <v>0.9513813824013824</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.250837910897403</v>
+        <v>1.789798805941819</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9513813824013824</v>
+        <v>7</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.789798805941819</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.1320375264898257</v>
       </c>
     </row>
@@ -7601,72 +7349,66 @@
         <v>1.320214635230244e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.7640501946839655</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.2624661233698924</v>
+        <v>3.948336136175675e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.002942949274188725</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>3.948336136175675e-06</v>
+        <v>0.164972535736873</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.002942949274188725</v>
+        <v>0.02722301696501626</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.164972535736873</v>
+        <v>1.669453735367871</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.02722301696501626</v>
+        <v>1.423834735918758</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.586063436817655</v>
+        <v>3.310496473660991</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.423834735918758</v>
+        <v>2.044522920603314e-14</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.310496473660991</v>
+        <v>12540764.28400718</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>2.044522920603314e-14</v>
+        <v>9.076172870498092e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>12540764.28400718</v>
+        <v>3.215436916077682</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>9.076172870498092e-06</v>
+        <v>0.000216730205398693</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>3.215436916077682</v>
+        <v>11.93457470299638</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.000216730205398693</v>
+        <v>1.132641229628989</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>11.93457470299638</v>
+        <v>0.03086976597105437</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.132641229628989</v>
+        <v>2.406855709608593</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.03086976597105437</v>
+        <v>0.9506550235463556</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.406855709608593</v>
+        <v>1.79535977858084</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9506550235463556</v>
+        <v>7</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.79535977858084</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.1295081549607088</v>
       </c>
     </row>
@@ -7681,72 +7423,66 @@
         <v>1.319997864991454e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.7534940730538515</v>
+        <v>4.85304893097032e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.2718205333994081</v>
+        <v>3.948822037632149e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>4.85304893097032e-07</v>
+        <v>0.004397629704220819</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>3.948822037632149e-06</v>
+        <v>0.1641224834382258</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.004397629704220819</v>
+        <v>0.02695427915383643</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1641224834382258</v>
+        <v>1.689141890015317</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.02695427915383643</v>
+        <v>1.39782498879376</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.608143700317141</v>
+        <v>3.870906944801352</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.39782498879376</v>
+        <v>1.495384175625363e-14</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.870906944801352</v>
+        <v>17191414.98543987</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.495384175625363e-14</v>
+        <v>6.660629485418869e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>17191414.98543987</v>
+        <v>4.419529411452492</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>6.660629485418869e-06</v>
+        <v>0.0002244635629238794</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>4.419529411452492</v>
+        <v>10.08984575495503</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0002244635629238794</v>
+        <v>1.480009633544304</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>10.08984575495503</v>
+        <v>0.02285151018597316</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.480009633544304</v>
+        <v>2.595580586563586</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.02285151018597316</v>
+        <v>0.9499659276865096</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.595580586563586</v>
+        <v>1.789491147058151</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9499659276865096</v>
+        <v>7</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.789491147058151</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.132590979030858</v>
       </c>
     </row>
@@ -8123,7 +7859,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.408323705453872</v>
+        <v>1.423379525584478</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.914283241686466</v>
@@ -8212,7 +7948,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.497178402915776</v>
+        <v>1.506133204701909</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.569952342004967</v>
@@ -8301,7 +8037,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.507414144722513</v>
+        <v>1.517036305655896</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.775644021615043</v>
@@ -8390,7 +8126,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.523847202015967</v>
+        <v>1.533606492040425</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.529557436454785</v>
@@ -8479,7 +8215,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.559758438998378</v>
+        <v>1.571563941296916</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.650398190745534</v>
@@ -8568,7 +8304,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.592052574080267</v>
+        <v>1.604027797055986</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.947682125975874</v>
@@ -8657,7 +8393,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.598480733180728</v>
+        <v>1.613491075910496</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.704234290852188</v>
@@ -8746,7 +8482,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602156074577844</v>
+        <v>1.623263155447065</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.725080959054918</v>
@@ -8835,7 +8571,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.644555875995163</v>
+        <v>1.666491048137389</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.051101212472037</v>
@@ -8924,7 +8660,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.709918463602985</v>
+        <v>1.726262526765193</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.054138237877446</v>
@@ -9013,7 +8749,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.746212868524388</v>
+        <v>1.759378569137608</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.887190174339683</v>
@@ -9102,7 +8838,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.756930721515849</v>
+        <v>1.770326611864296</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.786816734727611</v>
@@ -9191,7 +8927,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.741006316708953</v>
+        <v>1.756957086792457</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.039329754580475</v>
@@ -9280,7 +9016,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.746287606348582</v>
+        <v>1.764505545573843</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.107253973412207</v>
@@ -9369,7 +9105,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.726704139746576</v>
+        <v>1.75231020811114</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.798130850168508</v>
@@ -9458,7 +9194,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.758012517165339</v>
+        <v>1.788328688377008</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.98888106983984</v>
@@ -9547,7 +9283,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.74145963041176</v>
+        <v>1.776740681294481</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.031359303039099</v>
@@ -9636,7 +9372,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.739973967200226</v>
+        <v>1.776061706466042</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.174001028431805</v>
@@ -9725,7 +9461,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.757343288544989</v>
+        <v>1.790655013715341</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.940923797116834</v>
@@ -9814,7 +9550,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.755345157478495</v>
+        <v>1.790014334255175</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.204113720280387</v>
@@ -9903,7 +9639,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.721583280700504</v>
+        <v>1.754762519444977</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.9075404926473</v>
@@ -9992,7 +9728,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.713682443804503</v>
+        <v>1.744288512663799</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.840433544062042</v>
@@ -10081,7 +9817,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.708068752910369</v>
+        <v>1.740634774300803</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.87489360353906</v>
@@ -10170,7 +9906,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.712648221888185</v>
+        <v>1.74547707136258</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.918815924979625</v>
@@ -10259,7 +9995,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.728406126376774</v>
+        <v>1.763117219733958</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.230184422395312</v>
@@ -10348,7 +10084,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.730432056030393</v>
+        <v>1.764643309771833</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.69154635525091</v>
@@ -10437,7 +10173,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.739215772612746</v>
+        <v>1.773990298595683</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.120213836751452</v>
@@ -10526,7 +10262,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.738170094219401</v>
+        <v>1.77159529075992</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.356309691090496</v>
@@ -10615,7 +10351,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.832925534423912</v>
+        <v>1.870276975010739</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.499482392620183</v>
@@ -10704,7 +10440,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.72820920786388</v>
+        <v>1.735911858617465</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.514053244754874</v>
@@ -10793,7 +10529,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.725862099870373</v>
+        <v>1.733157657049206</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.512689077902936</v>
@@ -10882,7 +10618,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.746709933914324</v>
+        <v>1.750391743648988</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.511641613763949</v>
@@ -10971,7 +10707,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.731288501604643</v>
+        <v>1.737989209280758</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.51206840809239</v>
@@ -11060,7 +10796,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.731158759132323</v>
+        <v>1.736730164152782</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.510184748449658</v>
@@ -11149,7 +10885,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.74784920421814</v>
+        <v>1.750611046500799</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.526462222415881</v>
@@ -11238,7 +10974,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.761848547108737</v>
+        <v>1.764515345303365</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.520942082532478</v>
@@ -11327,7 +11063,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.771139888993684</v>
+        <v>1.773849770553694</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.5271618577909</v>
@@ -11416,7 +11152,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.779003974523841</v>
+        <v>1.778589613235892</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.527996263812515</v>
@@ -11505,7 +11241,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.774948897459301</v>
+        <v>1.772641487426765</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.523845658751831</v>
@@ -11594,7 +11330,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.775021597111544</v>
+        <v>1.774079829695537</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.522973456871487</v>
@@ -11683,7 +11419,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.778168046480302</v>
+        <v>1.775013505420105</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.527908849637347</v>
@@ -11772,7 +11508,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.797936139182618</v>
+        <v>1.791431957782783</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.524518662324816</v>
@@ -11861,7 +11597,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.799782812277417</v>
+        <v>1.793914415049375</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.525977423864988</v>
@@ -11950,7 +11686,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.864150093614218</v>
+        <v>1.880314652863658</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.153269216249921</v>
@@ -12039,7 +11775,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.880905390424157</v>
+        <v>1.895153779802478</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.102575486536788</v>
@@ -12128,7 +11864,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.865392452942459</v>
+        <v>1.877850114773927</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.46808334140179</v>
@@ -12217,7 +11953,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.864591095797091</v>
+        <v>1.878232960132199</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.911166282043519</v>
@@ -12306,7 +12042,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.889166047049426</v>
+        <v>1.899284491653274</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.326120969358812</v>
@@ -12395,7 +12131,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.893077463028524</v>
+        <v>1.904482176045513</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.73515070095007</v>
@@ -12484,7 +12220,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.897241783253454</v>
+        <v>1.907889285724086</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.552550935055851</v>
@@ -12573,7 +12309,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.899115651178621</v>
+        <v>1.908310009921151</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.844270785514979</v>
@@ -12662,7 +12398,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.90410166575394</v>
+        <v>1.916062171524077</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.488719361894425</v>
@@ -12751,7 +12487,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.938235558206197</v>
+        <v>1.944706214558763</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.720114902191468</v>
@@ -12840,7 +12576,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.937803854120792</v>
+        <v>1.947834239198634</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.609532687835311</v>
@@ -12929,7 +12665,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.941805594702334</v>
+        <v>1.951417522013083</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.997762952046939</v>
@@ -13018,7 +12754,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.937968432262854</v>
+        <v>1.949249187402856</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.618910358513741</v>
@@ -13107,7 +12843,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.931964196537711</v>
+        <v>1.943537265358851</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.659158197519076</v>
@@ -13196,7 +12932,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.952451015617508</v>
+        <v>1.960171612603036</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.010954772339723</v>
@@ -13285,7 +13021,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.955482564867707</v>
+        <v>1.961249869422565</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.259225417149104</v>
@@ -13374,7 +13110,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.951354282274605</v>
+        <v>1.954656474013264</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.830536376775872</v>
@@ -13463,7 +13199,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.972083424113377</v>
+        <v>1.977680094254729</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.641495547109638</v>
@@ -13552,7 +13288,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.974838499469981</v>
+        <v>1.980802541763147</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.283319810210661</v>
@@ -13641,7 +13377,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.94703170569786</v>
+        <v>1.958755949843121</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.440153409744648</v>
@@ -13730,7 +13466,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.922583584343092</v>
+        <v>1.935815056649367</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.401382885105715</v>
@@ -13819,7 +13555,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.904867688262357</v>
+        <v>1.915126292788338</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.366080467704623</v>
@@ -13908,7 +13644,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.899153763831154</v>
+        <v>1.90758025329913</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.19811897026831</v>
@@ -13997,7 +13733,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.894959004053</v>
+        <v>1.901181640415132</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.360326907713004</v>
@@ -14086,7 +13822,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.84498946742617</v>
+        <v>1.858511160801625</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.253942539801503</v>
@@ -14175,7 +13911,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.69013113905218</v>
+        <v>1.728385423519796</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.947320249429981</v>
@@ -14264,7 +14000,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.673427888428826</v>
+        <v>1.716697099267599</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.977975238770993</v>
@@ -14353,7 +14089,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.651111798968844</v>
+        <v>1.693528966776678</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.976112574399143</v>
@@ -14442,7 +14178,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.645519180380731</v>
+        <v>1.687787438005072</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.979251384083479</v>
@@ -14531,7 +14267,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.65170259754209</v>
+        <v>1.693317987867712</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.983265961514822</v>
@@ -14620,7 +14356,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.646471484428605</v>
+        <v>1.687379129770335</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.964175847915619</v>
@@ -14709,7 +14445,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.651791334115107</v>
+        <v>1.692924000842361</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.994781198578535</v>
@@ -14798,7 +14534,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.629017141846587</v>
+        <v>1.66573447540583</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.972675624469143</v>
@@ -14887,7 +14623,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.617933949150212</v>
+        <v>1.653902901379337</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.934151162527503</v>
@@ -14976,7 +14712,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.61708236356884</v>
+        <v>1.650733270499459</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.943123040333754</v>
@@ -15065,7 +14801,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.611640676681722</v>
+        <v>1.648090343007029</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.975529072592809</v>
@@ -15154,7 +14890,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.608269073158291</v>
+        <v>1.643302657212086</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.95356646180349</v>
@@ -15243,7 +14979,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.588967271473353</v>
+        <v>1.629949120033773</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.949133618086875</v>
@@ -15332,7 +15068,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.585172555532162</v>
+        <v>1.623588059219559</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.945324878434473</v>
@@ -15421,7 +15157,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.600474278610652</v>
+        <v>1.637319692230058</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.012448139344951</v>
@@ -15510,7 +15246,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.713564711039648</v>
+        <v>1.729624904981947</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.237113106881114</v>
@@ -15599,7 +15335,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.71252400952376</v>
+        <v>1.729176148363749</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.986923286078053</v>
@@ -15688,7 +15424,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.760728557894404</v>
+        <v>1.769088389636707</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.853039946204043</v>
@@ -15777,7 +15513,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.767294813892224</v>
+        <v>1.787422547994552</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.912505118760576</v>
@@ -16063,7 +15799,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.852938650304311</v>
+        <v>1.876889325814722</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.673235387313265</v>
@@ -16152,7 +15888,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.886733291558455</v>
+        <v>1.908830487090468</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.547737591704605</v>
@@ -16241,7 +15977,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.90048656328802</v>
+        <v>1.932005374987256</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.146331269405431</v>
@@ -16330,7 +16066,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.920660261947559</v>
+        <v>1.955210696786656</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.272425089800766</v>
@@ -16419,7 +16155,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.935266631727517</v>
+        <v>1.981501115441741</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.414492672686425</v>
@@ -16508,7 +16244,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.950949531069876</v>
+        <v>2.000972905645134</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.715095184692751</v>
@@ -16597,7 +16333,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.964433497627447</v>
+        <v>2.019800443923671</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.457884042718559</v>
@@ -16686,7 +16422,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.97149179924764</v>
+        <v>2.029255597227503</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.540890204034206</v>
@@ -16775,7 +16511,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.976978526422414</v>
+        <v>2.038227453793362</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.153567408588901</v>
@@ -16864,7 +16600,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.977978203114973</v>
+        <v>2.046674031381885</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5.183135945270751</v>
@@ -16953,7 +16689,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.973727611996237</v>
+        <v>2.04877038443427</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.101943936954985</v>
@@ -17042,7 +16778,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.975734327310803</v>
+        <v>2.053275333625475</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.753317733582315</v>
@@ -17131,7 +16867,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.976144140302061</v>
+        <v>2.052152950700785</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.859819716997036</v>
@@ -17220,7 +16956,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.975506567934746</v>
+        <v>2.056743693684897</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.157501877386972</v>
@@ -17309,7 +17045,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.976963758383703</v>
+        <v>2.057739004328969</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>5.154315360281329</v>
@@ -17398,7 +17134,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.979510751461936</v>
+        <v>2.058912306172339</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.133103044833921</v>
@@ -17487,7 +17223,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.975056877586715</v>
+        <v>2.063039164726039</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.106693338961456</v>
@@ -17576,7 +17312,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.971458272735508</v>
+        <v>2.058586076329401</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.892607039207273</v>
@@ -17665,7 +17401,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.973181700049963</v>
+        <v>2.058414996340447</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.744173423091393</v>
@@ -17754,7 +17490,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.963912637426019</v>
+        <v>2.049015951798362</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.773457930455127</v>
@@ -17843,7 +17579,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.96074742161116</v>
+        <v>2.045320976991096</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.046102134146556</v>
@@ -17932,7 +17668,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.965606764740963</v>
+        <v>2.045417338163209</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.630943035355788</v>
@@ -18021,7 +17757,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.972844261694773</v>
+        <v>2.05252740632204</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.85891226887583</v>
@@ -18110,7 +17846,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.96790061325097</v>
+        <v>2.054025388928532</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.035379284195955</v>
@@ -18199,7 +17935,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.972023540169381</v>
+        <v>2.056951397507569</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.220064945078171</v>
@@ -18288,7 +18024,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.976879833774884</v>
+        <v>2.065427671180003</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.0054825047292</v>
@@ -18377,7 +18113,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.973172207804788</v>
+        <v>2.068516789722355</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.178568742149535</v>
@@ -18466,7 +18202,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.97294086165616</v>
+        <v>2.068476811037725</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.921283740432916</v>
@@ -18555,7 +18291,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.973530298275713</v>
+        <v>2.067897160302985</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.778113140321383</v>
@@ -18644,7 +18380,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.96691236294586</v>
+        <v>2.056358483734921</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.806017718433854</v>
@@ -18733,7 +18469,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.967304183709824</v>
+        <v>2.057450528647641</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.825887992693626</v>
@@ -18822,7 +18558,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.967657748440307</v>
+        <v>2.054035979125898</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.573376770755401</v>
@@ -18911,7 +18647,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.968740378869476</v>
+        <v>2.05898130068518</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.848092316469175</v>
@@ -19000,7 +18736,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.972453050804238</v>
+        <v>2.069051619362908</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.407222264516992</v>
@@ -19089,7 +18825,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.976871401477372</v>
+        <v>2.066506197716957</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.085080172267814</v>
@@ -19178,7 +18914,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.978210028022233</v>
+        <v>2.068728099974173</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.196175301298693</v>
@@ -19267,7 +19003,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.97935184754305</v>
+        <v>2.079213292694615</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.874352639106339</v>
@@ -19356,7 +19092,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.977140169817047</v>
+        <v>2.078735640319589</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.236545993304036</v>
@@ -19445,7 +19181,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.977383844186868</v>
+        <v>2.074139421092393</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.838676517116073</v>
@@ -19534,7 +19270,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.975224865265538</v>
+        <v>2.071856502503287</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.554872851441934</v>
@@ -19623,7 +19359,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.971428918854314</v>
+        <v>2.061164334104443</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.67273101497577</v>
@@ -19712,7 +19448,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.972060519956725</v>
+        <v>2.057918647292363</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.24758581828414</v>
@@ -19801,7 +19537,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.974212034745226</v>
+        <v>2.066631154700317</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.181221952836878</v>
@@ -19890,7 +19626,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.979585004230506</v>
+        <v>2.078674713440564</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.861902827173396</v>
@@ -19979,7 +19715,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.981458447002254</v>
+        <v>2.079606238148259</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.961333091555828</v>
@@ -20068,7 +19804,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.983847788416071</v>
+        <v>2.080358506949487</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.807356321368923</v>
@@ -20157,7 +19893,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.985694897227615</v>
+        <v>2.077149146253093</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.652633797473113</v>
@@ -20246,7 +19982,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.986420238209649</v>
+        <v>2.074288293314478</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.302059332386406</v>
@@ -20335,7 +20071,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.9910685057164</v>
+        <v>2.071548029353359</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.741181371789304</v>
@@ -20424,7 +20160,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.986664214653906</v>
+        <v>2.070294652703111</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.291541825598356</v>
@@ -20513,7 +20249,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.983386332661662</v>
+        <v>2.063982972858117</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.130132026404706</v>
@@ -20602,7 +20338,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.983270052794193</v>
+        <v>2.061375675826995</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.097014613590138</v>
@@ -20691,7 +20427,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.98266939355106</v>
+        <v>2.061576860831557</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>5.476099430836618</v>
@@ -20780,7 +20516,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.987796522191867</v>
+        <v>2.062049311111986</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.343344554100959</v>
@@ -20869,7 +20605,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.985716321870967</v>
+        <v>2.059892877942461</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.886677268725126</v>
@@ -20958,7 +20694,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.987291533841484</v>
+        <v>2.064628210808165</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5.015982595840804</v>
@@ -21047,7 +20783,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.983695820579953</v>
+        <v>2.060220984038343</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.93950620639679</v>
@@ -21136,7 +20872,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.983872860475625</v>
+        <v>2.061363573351243</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.620880948719861</v>
@@ -21225,7 +20961,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.983610395451998</v>
+        <v>2.057508855519083</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.498450029651336</v>
@@ -21314,7 +21050,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.979797816595523</v>
+        <v>2.060636921299853</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.902020548320039</v>
@@ -21403,7 +21139,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.978864924673536</v>
+        <v>2.06043615322882</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.373300640174582</v>
@@ -21492,7 +21228,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.976374883491579</v>
+        <v>2.060291176882506</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.593402977456051</v>
@@ -21581,7 +21317,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.972442134528399</v>
+        <v>2.057682279724313</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.531247322155321</v>
@@ -21670,7 +21406,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.968243357151577</v>
+        <v>2.052789073550964</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>5.128278109555253</v>
@@ -21759,7 +21495,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.9676774240264</v>
+        <v>2.051486991154766</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>5.391427002718074</v>
@@ -21848,7 +21584,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.972404562267064</v>
+        <v>2.057068434920971</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.665376388310742</v>
@@ -21937,7 +21673,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.9736309526797</v>
+        <v>2.061029515332879</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>5.383105125131386</v>
@@ -22026,7 +21762,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.962853860372837</v>
+        <v>2.048093088475797</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.598444500939449</v>
@@ -22115,7 +21851,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.952162889983981</v>
+        <v>2.036186265346944</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.763399726516484</v>
@@ -22204,7 +21940,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.954288890471801</v>
+        <v>2.033393176153266</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.822029537176709</v>
@@ -22293,7 +22029,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.946925635876484</v>
+        <v>2.025902984936016</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.493869833431327</v>
@@ -22382,7 +22118,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.950681221860784</v>
+        <v>2.031258050694625</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.657922884857481</v>
@@ -22471,7 +22207,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.950613502957741</v>
+        <v>2.02043315672817</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.670343680489406</v>
@@ -22560,7 +22296,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.947316696543877</v>
+        <v>2.017313522469625</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.652648199173223</v>
@@ -22649,7 +22385,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.949688069145548</v>
+        <v>2.01557188922148</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.047742395361026</v>
@@ -22738,7 +22474,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.946696834940048</v>
+        <v>2.01279791987612</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.553899215519066</v>
@@ -22827,7 +22563,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.947298809915252</v>
+        <v>2.016525481707001</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>4.219318608506046</v>
@@ -22916,7 +22652,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.946495864842462</v>
+        <v>2.018364026880235</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.656463127034184</v>
@@ -23005,7 +22741,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.949736155874047</v>
+        <v>2.026284069573927</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.657051613000923</v>
@@ -23094,7 +22830,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.939124551568225</v>
+        <v>2.01778957341762</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.580192946156566</v>
@@ -23183,7 +22919,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.936682907481069</v>
+        <v>2.018451150961778</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.643682392158284</v>
@@ -23272,7 +23008,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.93611396476914</v>
+        <v>2.016377719527688</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>4.430079534532324</v>
@@ -23361,7 +23097,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.940891928351515</v>
+        <v>2.021839253715</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.769874630901933</v>
@@ -23450,7 +23186,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.945012991577824</v>
+        <v>2.025708770625278</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>4.415046589968348</v>
@@ -23539,7 +23275,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.940494930459278</v>
+        <v>2.026993105058423</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.441466673398704</v>
@@ -23628,7 +23364,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.940556769149847</v>
+        <v>2.025975699020816</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.464657817892506</v>
@@ -23717,7 +23453,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.929059791805773</v>
+        <v>2.008610606325461</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.540119757105308</v>
@@ -24003,7 +23739,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.833574364637203</v>
+        <v>1.847455393572728</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.439437651600525</v>
@@ -24092,7 +23828,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.857422537344504</v>
+        <v>1.864416018370415</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.641673539249944</v>
@@ -24181,7 +23917,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.86557052591199</v>
+        <v>1.879372504011654</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.806322922176093</v>
@@ -24270,7 +24006,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.875354049040982</v>
+        <v>1.893543572334424</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.762835965712669</v>
@@ -24359,7 +24095,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.885900680557547</v>
+        <v>1.913758348648631</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.101809293554074</v>
@@ -24448,7 +24184,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.899275703575196</v>
+        <v>1.928906203981733</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.955215347973194</v>
@@ -24537,7 +24273,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.904591859949991</v>
+        <v>1.937700331949171</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.474494149424038</v>
@@ -24626,7 +24362,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.909605871373461</v>
+        <v>1.942446965861719</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.178349567616371</v>
@@ -24715,7 +24451,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.921463235605968</v>
+        <v>1.958203807550426</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.603992452813462</v>
@@ -24804,7 +24540,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.926308405625843</v>
+        <v>1.963818393126923</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.509739438155039</v>
@@ -24893,7 +24629,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.924013413602239</v>
+        <v>1.968636649019824</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.322066267668228</v>
@@ -24982,7 +24718,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.916177189521457</v>
+        <v>1.958997231058361</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.785634031154967</v>
@@ -25071,7 +24807,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.91050167681924</v>
+        <v>1.94701803967354</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.566329081169665</v>
@@ -25160,7 +24896,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.909754581181038</v>
+        <v>1.945046397287429</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.769518633062436</v>
@@ -25249,7 +24985,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.912745662434366</v>
+        <v>1.952746100219671</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.330728327284892</v>
@@ -25338,7 +25074,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.921817554291408</v>
+        <v>1.966787032873202</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.970173496404468</v>
@@ -25427,7 +25163,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.919632640003758</v>
+        <v>1.966374684531172</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.238258197329372</v>
@@ -25516,7 +25252,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.916297034332666</v>
+        <v>1.957083558735028</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.426870748728881</v>
@@ -25605,7 +25341,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.919834674908431</v>
+        <v>1.956548012080757</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.761301107922695</v>
@@ -25694,7 +25430,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.914012336638941</v>
+        <v>1.94890467623451</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.038470546657758</v>
@@ -25783,7 +25519,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.909750968898785</v>
+        <v>1.945819644217446</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.815807231474563</v>
@@ -25872,7 +25608,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.909478567687424</v>
+        <v>1.943480416951584</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.669972628100134</v>
@@ -25961,7 +25697,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.914814250858211</v>
+        <v>1.955104262588306</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.159138922201056</v>
@@ -26050,7 +25786,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.916174104241251</v>
+        <v>1.961801868501549</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.262415064638971</v>
@@ -26139,7 +25875,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.925428927249179</v>
+        <v>1.976730395939165</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.413861289107187</v>
@@ -26228,7 +25964,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.930805456113432</v>
+        <v>1.984456534598363</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.041163685875471</v>
@@ -26317,7 +26053,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.938878012521912</v>
+        <v>1.997768931312824</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.772567851059677</v>
@@ -26406,7 +26142,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.938833432383185</v>
+        <v>1.995116885320129</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.580900543714937</v>
@@ -26495,7 +26231,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.939959332274176</v>
+        <v>1.991068427838744</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.344678312934724</v>
@@ -26584,7 +26320,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.92926243087728</v>
+        <v>1.974031318415558</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.024528430157576</v>
@@ -26673,7 +26409,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.930830567142972</v>
+        <v>1.974389623384996</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.167214486414107</v>
@@ -26762,7 +26498,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.932768638821554</v>
+        <v>1.977280653820814</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.162341396319208</v>
@@ -26851,7 +26587,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.934423006131198</v>
+        <v>1.98570428789131</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.114675684081152</v>
@@ -26940,7 +26676,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.937869780824835</v>
+        <v>1.992738798149452</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.013828908316306</v>
@@ -27029,7 +26765,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.941864175605126</v>
+        <v>1.988119435481977</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.958484360320748</v>
@@ -27118,7 +26854,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.942942484938622</v>
+        <v>1.988000607901329</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.097355430287838</v>
@@ -27207,7 +26943,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.942090240020574</v>
+        <v>1.991606945942531</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.061090407416869</v>
@@ -27296,7 +27032,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.940367966733371</v>
+        <v>1.984583907410471</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.950718978026915</v>
@@ -27385,7 +27121,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.93417410443491</v>
+        <v>1.969950917646846</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.98573824694537</v>
@@ -27474,7 +27210,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.931768243345026</v>
+        <v>1.962614266670224</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.964728413616133</v>
@@ -27563,7 +27299,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.928241524641444</v>
+        <v>1.954821793714105</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.98074798150553</v>
@@ -27652,7 +27388,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.927132565491162</v>
+        <v>1.9511129381902</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.911905468454745</v>
@@ -27741,7 +27477,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.929875797441145</v>
+        <v>1.959866434350785</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.047231383174673</v>
@@ -27830,7 +27566,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.938958368663323</v>
+        <v>1.977517993561105</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.79309704315185</v>
@@ -27919,7 +27655,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.944253234543394</v>
+        <v>1.987584270141254</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.595010528345202</v>
@@ -28008,7 +27744,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.943546349004835</v>
+        <v>1.986330665481892</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.96391878366664</v>
@@ -28097,7 +27833,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.943384193145127</v>
+        <v>1.983041248865798</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.910580035342367</v>
@@ -28186,7 +27922,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.943863857160742</v>
+        <v>1.975376434074261</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.495683886934963</v>
@@ -28275,7 +28011,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.944183506410976</v>
+        <v>1.975166411367715</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.947502479403073</v>
@@ -28364,7 +28100,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.944395047660542</v>
+        <v>1.979499191499702</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.728234491193204</v>
@@ -28453,7 +28189,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.940454647961631</v>
+        <v>1.976113229315224</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.56652089216034</v>
@@ -28542,7 +28278,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.942449873405199</v>
+        <v>1.975646714442341</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>5.137901735067546</v>
@@ -28631,7 +28367,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.947600050804108</v>
+        <v>1.98207934307681</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.411914862975298</v>
@@ -28720,7 +28456,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.954418172449041</v>
+        <v>1.992537410432301</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>5.089366448398076</v>
@@ -28809,7 +28545,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.954278034288026</v>
+        <v>1.994163202080211</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>5.262084521994946</v>
@@ -28898,7 +28634,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.958606137421473</v>
+        <v>1.999317166911348</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.548976751919143</v>
@@ -28987,7 +28723,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.954665535947958</v>
+        <v>1.996010850437255</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.958844281855873</v>
@@ -29076,7 +28812,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.956370538719431</v>
+        <v>1.988367181884154</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.865381520574759</v>
@@ -29165,7 +28901,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.956994434638199</v>
+        <v>1.992045928785669</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.3553503155114</v>
@@ -29254,7 +28990,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.954428577595641</v>
+        <v>1.990557247813436</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.671090498567517</v>
@@ -29343,7 +29079,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.953634431207335</v>
+        <v>1.990412956241428</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.676185758719812</v>
@@ -29432,7 +29168,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.952567580443093</v>
+        <v>1.989972067394378</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.869478493468621</v>
@@ -29521,7 +29257,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.948398489268156</v>
+        <v>1.989370985721662</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.572314253901672</v>
@@ -29610,7 +29346,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.944782189803205</v>
+        <v>1.976310375121769</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>5.342125411528907</v>
@@ -29699,7 +29435,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.939875474952529</v>
+        <v>1.972524709995348</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>5.118816457950571</v>
@@ -29788,7 +29524,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.943273794638928</v>
+        <v>1.97179025299594</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>5.15197048982311</v>
@@ -29877,7 +29613,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.94278892819751</v>
+        <v>1.972565561640903</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.431629427368939</v>
@@ -29966,7 +29702,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.93972037968785</v>
+        <v>1.966333632284607</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>5.579051905851999</v>
@@ -30055,7 +29791,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.920030935909261</v>
+        <v>1.948017584489275</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.920144051613646</v>
@@ -30144,7 +29880,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.925914216944776</v>
+        <v>1.94918480116493</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.106063196118964</v>
@@ -30233,7 +29969,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.913433454929933</v>
+        <v>1.934869941490387</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.977271000658823</v>
@@ -30322,7 +30058,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.915442255356005</v>
+        <v>1.937617967130021</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.059078894017179</v>
@@ -30411,7 +30147,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.913784274546708</v>
+        <v>1.937200221007993</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.812390908359003</v>
@@ -30500,7 +30236,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.912495774388085</v>
+        <v>1.936791551153559</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.972469641581148</v>
@@ -30589,7 +30325,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.913265018286697</v>
+        <v>1.935876236405851</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.970157031741244</v>
@@ -30678,7 +30414,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.90764666712046</v>
+        <v>1.931145537737323</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.1331349389639</v>
@@ -30767,7 +30503,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.910215632770673</v>
+        <v>1.938952481274868</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.056806824225933</v>
@@ -30856,7 +30592,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.910547548967397</v>
+        <v>1.943506543460271</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.04528166139252</v>
@@ -30945,7 +30681,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.914638426494241</v>
+        <v>1.954765896640516</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.923327904058228</v>
@@ -31034,7 +30770,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.912132836520995</v>
+        <v>1.952857832910782</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.063775462838121</v>
@@ -31123,7 +30859,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.910052611463097</v>
+        <v>1.954408101131429</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.942957157732665</v>
@@ -31212,7 +30948,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.907948764625532</v>
+        <v>1.950950676534129</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.014819974430032</v>
@@ -31301,7 +31037,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.907274156059481</v>
+        <v>1.953475570430278</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.067555496926401</v>
@@ -31390,7 +31126,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.920291539679768</v>
+        <v>1.961641173779757</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.945067718555822</v>
@@ -31479,7 +31215,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.908969590627745</v>
+        <v>1.953272407222832</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>4.480307878369341</v>
@@ -31568,7 +31304,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.918520676367844</v>
+        <v>1.96387712895285</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>5.300024339693354</v>
@@ -31657,7 +31393,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.910466603224741</v>
+        <v>1.953466666173572</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.947537087393444</v>
@@ -31943,7 +31679,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.786537380715116</v>
+        <v>1.75942287288352</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.263189883449417</v>
@@ -32032,7 +31768,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.797894219139191</v>
+        <v>1.760600329791956</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.237236841287402</v>
@@ -32121,7 +31857,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.78817855758805</v>
+        <v>1.750881832611168</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.290373416523845</v>
@@ -32210,7 +31946,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.797483957648553</v>
+        <v>1.755975145229935</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.735948242746367</v>
@@ -32299,7 +32035,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.805353837705343</v>
+        <v>1.760005891995793</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.525344444689425</v>
@@ -32388,7 +32124,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.815012646594285</v>
+        <v>1.76727694046215</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.024681057984172</v>
@@ -32477,7 +32213,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.820725441206832</v>
+        <v>1.77741451915759</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.485073905904602</v>
@@ -32566,7 +32302,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.824012948450433</v>
+        <v>1.783067334477499</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.501465325938256</v>
@@ -32655,7 +32391,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.829703979839839</v>
+        <v>1.788182025404152</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.752674434643637</v>
@@ -32744,7 +32480,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.84025716659811</v>
+        <v>1.790439877092524</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.243347437459428</v>
@@ -32833,7 +32569,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.834934214225599</v>
+        <v>1.788803723921982</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.20631615800838</v>
@@ -32922,7 +32658,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.830329504634552</v>
+        <v>1.788962767064141</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.169526577302122</v>
@@ -33011,7 +32747,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.83053576791954</v>
+        <v>1.791918592374439</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.556948523372691</v>
@@ -33100,7 +32836,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.828799046482344</v>
+        <v>1.794437563755784</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.396365497902758</v>
@@ -33189,7 +32925,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.827165298162936</v>
+        <v>1.796630494161945</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.815001469447265</v>
@@ -33278,7 +33014,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.837487466420698</v>
+        <v>1.810395909201325</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.657981062496255</v>
@@ -33367,7 +33103,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.833470769930832</v>
+        <v>1.805167274137397</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.122575160482179</v>
@@ -33456,7 +33192,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.837470051485908</v>
+        <v>1.804089062929727</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.502010869243312</v>
@@ -33545,7 +33281,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.834933023977864</v>
+        <v>1.791629664770757</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.456600585213593</v>
@@ -33634,7 +33370,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.824710065311815</v>
+        <v>1.776354615421722</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.027463990694963</v>
@@ -33723,7 +33459,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.816097866197417</v>
+        <v>1.769540522430393</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.960054611326682</v>
@@ -33812,7 +33548,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.817338585164</v>
+        <v>1.769347575859525</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.916900796131161</v>
@@ -33901,7 +33637,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.80940112131825</v>
+        <v>1.7611311974728</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.994922470852478</v>
@@ -33990,7 +33726,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.817919442535594</v>
+        <v>1.775007412615802</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.101219264555601</v>
@@ -34079,7 +33815,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.821090035163622</v>
+        <v>1.782243698813993</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.767275397818798</v>
@@ -34168,7 +33904,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.82143184713461</v>
+        <v>1.783211441789938</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.603524275998684</v>
@@ -34257,7 +33993,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.82255901835154</v>
+        <v>1.781724181980178</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.37305618443447</v>
@@ -34346,7 +34082,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.821598542546075</v>
+        <v>1.776516125657361</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.772069226556477</v>
@@ -34435,7 +34171,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.829788727271144</v>
+        <v>1.786141718096136</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.459751751444942</v>
@@ -34524,7 +34260,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.811761713625874</v>
+        <v>1.764173879150189</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.377394776057301</v>
@@ -34613,7 +34349,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.81443091722162</v>
+        <v>1.767991287111354</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.370393432170262</v>
@@ -34702,7 +34438,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.82159951723031</v>
+        <v>1.774660374033725</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.435115406997916</v>
@@ -34791,7 +34527,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.812194849861187</v>
+        <v>1.769274638966915</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.358173564250036</v>
@@ -34880,7 +34616,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.816395297077843</v>
+        <v>1.778076085472309</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.37707905255881</v>
@@ -34969,7 +34705,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.820260169675451</v>
+        <v>1.789166860454043</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.316835954507106</v>
@@ -35058,7 +34794,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.825120182948923</v>
+        <v>1.789502372053996</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.51478360988653</v>
@@ -35147,7 +34883,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.81986687675819</v>
+        <v>1.786475205130669</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.432603331274027</v>
@@ -35236,7 +34972,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.822842153133507</v>
+        <v>1.791035525079968</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.378986980995563</v>
@@ -35325,7 +35061,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.823082494558619</v>
+        <v>1.783134593665612</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.443333070029701</v>
@@ -35414,7 +35150,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.827689550961767</v>
+        <v>1.783800564923804</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.390778113438754</v>
@@ -35503,7 +35239,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.827148874537309</v>
+        <v>1.784926914536526</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.469823916467746</v>
@@ -35592,7 +35328,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.828203516128069</v>
+        <v>1.784427166868062</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.365282135826589</v>
@@ -35681,7 +35417,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.830986066280789</v>
+        <v>1.788288775703777</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.527201838049904</v>
@@ -35770,7 +35506,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.845197214412879</v>
+        <v>1.804922306597656</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.154533756872292</v>
@@ -35859,7 +35595,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.854048557136594</v>
+        <v>1.813692619450635</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.101568427760978</v>
@@ -35948,7 +35684,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.847499078365475</v>
+        <v>1.807311629418198</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.888075615264868</v>
@@ -36037,7 +35773,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.851736741409396</v>
+        <v>1.812337566860652</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.348909493102727</v>
@@ -36126,7 +35862,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.859303178620602</v>
+        <v>1.815902692775816</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.28904735295632</v>
@@ -36215,7 +35951,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.8623478743972</v>
+        <v>1.817875067859216</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.963363641919373</v>
@@ -36304,7 +36040,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.862050389924521</v>
+        <v>1.812526433278802</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.816281653744416</v>
@@ -36393,7 +36129,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.864809590873085</v>
+        <v>1.820591982621663</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.261031099196072</v>
@@ -36482,7 +36218,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.860882934925341</v>
+        <v>1.814144733088629</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.440769512125921</v>
@@ -36571,7 +36307,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.871091843366435</v>
+        <v>1.82392154610462</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.556582007891841</v>
@@ -36660,7 +36396,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.864826850483855</v>
+        <v>1.817532683294164</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.541608566370001</v>
@@ -36749,7 +36485,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.867466136793542</v>
+        <v>1.82213808566414</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.357486833068158</v>
@@ -36838,7 +36574,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.871685379658316</v>
+        <v>1.825202091502591</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.607276871014768</v>
@@ -36927,7 +36663,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.875378230516794</v>
+        <v>1.829858425057559</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.338090765668433</v>
@@ -37016,7 +36752,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.876554515779669</v>
+        <v>1.827732577354599</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.406061747808675</v>
@@ -37105,7 +36841,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.875274932209081</v>
+        <v>1.823800753035566</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.368640775027569</v>
@@ -37194,7 +36930,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.870363282016199</v>
+        <v>1.820439516869384</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.820410281346244</v>
@@ -37283,7 +37019,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.87533545760788</v>
+        <v>1.822968217400776</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.055571167380639</v>
@@ -37372,7 +37108,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.873830515177793</v>
+        <v>1.819914588508675</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.359797941573366</v>
@@ -37461,7 +37197,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.867958118228345</v>
+        <v>1.816881281090851</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.244312007115894</v>
@@ -37550,7 +37286,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.865268071443309</v>
+        <v>1.810640885000375</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.596612995544514</v>
@@ -37639,7 +37375,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.868476616773419</v>
+        <v>1.82072957523713</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.759436047252043</v>
@@ -37728,7 +37464,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.873189254523964</v>
+        <v>1.82644960155109</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.075302173111766</v>
@@ -37817,7 +37553,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.881671705285088</v>
+        <v>1.836589660931526</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.548847171442219</v>
@@ -37906,7 +37642,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.860050507481029</v>
+        <v>1.81602415874317</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.005969008489018</v>
@@ -37995,7 +37731,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.862176869217141</v>
+        <v>1.827955113581323</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.582952012425495</v>
@@ -38084,7 +37820,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.859155855726716</v>
+        <v>1.833259895992454</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.736619333305059</v>
@@ -38173,7 +37909,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.838128180930517</v>
+        <v>1.809751214132612</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.707669673037478</v>
@@ -38262,7 +37998,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.836045736022146</v>
+        <v>1.806777882124393</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.651193423013999</v>
@@ -38351,7 +38087,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.843659162510607</v>
+        <v>1.815471451799226</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.624850872253715</v>
@@ -38440,7 +38176,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.845819468536352</v>
+        <v>1.82330006297131</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.711829152240268</v>
@@ -38529,7 +38265,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.845827482257497</v>
+        <v>1.822340703035036</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.825170047048362</v>
@@ -38618,7 +38354,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.832608005126796</v>
+        <v>1.811977005957223</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.731755628804152</v>
@@ -38707,7 +38443,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.829880290490639</v>
+        <v>1.809719937268203</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.708677984605249</v>
@@ -38796,7 +38532,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.833090155652723</v>
+        <v>1.809561410178352</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.676166972073394</v>
@@ -38885,7 +38621,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.828780290599331</v>
+        <v>1.810383128151009</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.543942238385934</v>
@@ -38974,7 +38710,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.818852681464604</v>
+        <v>1.797788190413009</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.677981298681294</v>
@@ -39063,7 +38799,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.80560084203908</v>
+        <v>1.78417307701825</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.591999775969271</v>
@@ -39152,7 +38888,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.801713477781227</v>
+        <v>1.775833035395402</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.661827815553648</v>
@@ -39241,7 +38977,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.815951266214535</v>
+        <v>1.789008263741709</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.554671377174414</v>
@@ -39330,7 +39066,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.813255310898518</v>
+        <v>1.776642268875076</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.489391869040824</v>
@@ -39419,7 +39155,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.798879265690042</v>
+        <v>1.755795113218038</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.881148376432529</v>
@@ -39508,7 +39244,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.81853747232065</v>
+        <v>1.775677275063338</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.716715299740262</v>
@@ -39597,7 +39333,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.818050943173377</v>
+        <v>1.778694724638768</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.360238023062617</v>
@@ -39883,7 +39619,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.610223888490715</v>
+        <v>1.580644858182634</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.079605093351068</v>
@@ -39972,7 +39708,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.637720933152868</v>
+        <v>1.598147777545255</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.264791766312805</v>
@@ -40061,7 +39797,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.644258343845888</v>
+        <v>1.603504325576359</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.239216044591026</v>
@@ -40150,7 +39886,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.643398664667198</v>
+        <v>1.603656134172566</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.164132480252177</v>
@@ -40239,7 +39975,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.653607110137282</v>
+        <v>1.61617725766724</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.083854688556709</v>
@@ -40328,7 +40064,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.6603023382734</v>
+        <v>1.621941813956238</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.128102092454453</v>
@@ -40417,7 +40153,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.689205633071291</v>
+        <v>1.651475959755286</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.160436476095552</v>
@@ -40506,7 +40242,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.700096929464397</v>
+        <v>1.66425810851707</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.54289032321538</v>
@@ -40595,7 +40331,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.691808046785784</v>
+        <v>1.658042204813128</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.082008527317806</v>
@@ -40684,7 +40420,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.681477532004759</v>
+        <v>1.645101062588585</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.313001660284253</v>
@@ -40773,7 +40509,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.667066023501428</v>
+        <v>1.624037577603072</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.304073976752723</v>
@@ -40862,7 +40598,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.669860791891477</v>
+        <v>1.620626494999439</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.164729550186394</v>
@@ -40951,7 +40687,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.674854912666797</v>
+        <v>1.63312387893757</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.036494286760972</v>
@@ -41040,7 +40776,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.674239894473252</v>
+        <v>1.640717482220995</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.262188800346148</v>
@@ -41129,7 +40865,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.675099303430682</v>
+        <v>1.640742748922955</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.210943992944988</v>
@@ -41218,7 +40954,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.671946911179621</v>
+        <v>1.640815726717573</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.835014339806469</v>
@@ -41307,7 +41043,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.668558966106451</v>
+        <v>1.643271395624677</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.291205134615288</v>
@@ -41396,7 +41132,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.669277888903072</v>
+        <v>1.642604769955286</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.334562899706138</v>
@@ -41485,7 +41221,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.681317136343566</v>
+        <v>1.655366337918151</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.094288201923225</v>
@@ -41574,7 +41310,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.675233413119299</v>
+        <v>1.646452703861193</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.296746715944424</v>
@@ -41663,7 +41399,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.673993321689054</v>
+        <v>1.644018476195935</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.156490860868988</v>
@@ -41752,7 +41488,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.678148000531335</v>
+        <v>1.651946639058375</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.272508009072278</v>
@@ -41841,7 +41577,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.683799958402274</v>
+        <v>1.655000348113351</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.174241728840685</v>
@@ -41930,7 +41666,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.691293761288017</v>
+        <v>1.664509188768964</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.279903045329586</v>
@@ -42019,7 +41755,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.692503979137269</v>
+        <v>1.671803859395345</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.646408773112147</v>
@@ -42108,7 +41844,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.693477600300092</v>
+        <v>1.677025507555719</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.14864993991841</v>
@@ -42197,7 +41933,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.697652556566018</v>
+        <v>1.680796151623702</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.006621235415891</v>
@@ -42286,7 +42022,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.694266907144295</v>
+        <v>1.673116975158305</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.327684151789304</v>
@@ -42375,7 +42111,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.711785042039141</v>
+        <v>1.697125978691744</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.199017207859075</v>
@@ -42464,7 +42200,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.684509623159131</v>
+        <v>1.667594642919439</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.22211008431897</v>
@@ -42553,7 +42289,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.679700525893352</v>
+        <v>1.663444503690074</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.159019458532808</v>
@@ -42642,7 +42378,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.677741198512892</v>
+        <v>1.657641521556004</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.194324951888177</v>
@@ -42731,7 +42467,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.676453793530133</v>
+        <v>1.656672348403813</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.221707775611376</v>
@@ -42820,7 +42556,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.68233726577886</v>
+        <v>1.662635542372282</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.200918602890516</v>
@@ -42909,7 +42645,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.690615559844102</v>
+        <v>1.659271337929127</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.23086287044737</v>
@@ -42998,7 +42734,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.692155882766934</v>
+        <v>1.658819254738273</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.264939083010264</v>
@@ -43087,7 +42823,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.692397708713885</v>
+        <v>1.656699051371154</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.192962888208674</v>
@@ -43176,7 +42912,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.687738908043225</v>
+        <v>1.650309023340158</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.208880597410499</v>
@@ -43265,7 +43001,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.681360374210912</v>
+        <v>1.641468386826508</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.192313807632767</v>
@@ -43354,7 +43090,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.682964405653856</v>
+        <v>1.645168000003301</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.169084788498036</v>
@@ -43443,7 +43179,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.683015516613798</v>
+        <v>1.642398177634253</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.202902015872158</v>
@@ -43532,7 +43268,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.68483514323241</v>
+        <v>1.647926784907839</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.130178966811676</v>
@@ -43621,7 +43357,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.692677411759308</v>
+        <v>1.655063091255897</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.177295631946266</v>
@@ -43710,7 +43446,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.700744009844674</v>
+        <v>1.661595751020495</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.881312499915401</v>
@@ -43799,7 +43535,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.723307195733732</v>
+        <v>1.679156262524277</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.395954227987446</v>
@@ -43888,7 +43624,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.73259743427541</v>
+        <v>1.682643221006388</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.574984270015887</v>
@@ -43977,7 +43713,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.748449383426617</v>
+        <v>1.695557182324269</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.428529166875381</v>
@@ -44066,7 +43802,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.757202798831313</v>
+        <v>1.699268219128929</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.657077646183343</v>
@@ -44155,7 +43891,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.750393981536494</v>
+        <v>1.692738366155516</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.300663234401764</v>
@@ -44244,7 +43980,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.749681412163686</v>
+        <v>1.699411277227897</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.368328329169716</v>
@@ -44333,7 +44069,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.74328834876755</v>
+        <v>1.689796851488742</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.607606415699374</v>
@@ -44422,7 +44158,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.736059732130623</v>
+        <v>1.682800808322615</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.1386104626925</v>
@@ -44511,7 +44247,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.733948294163364</v>
+        <v>1.684040363852922</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.196064705209934</v>
@@ -44600,7 +44336,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.75324848565143</v>
+        <v>1.697005086251142</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.195787860900289</v>
@@ -44689,7 +44425,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.749137377721672</v>
+        <v>1.692594362773045</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.226552002365502</v>
@@ -44778,7 +44514,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.749950727432157</v>
+        <v>1.690509903928822</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.257119077519917</v>
@@ -44867,7 +44603,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.744835630427342</v>
+        <v>1.690604716041818</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.35667383800645</v>
@@ -44956,7 +44692,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.73754154838738</v>
+        <v>1.688411535256436</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.381790673653134</v>
@@ -45045,7 +44781,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.732845247704408</v>
+        <v>1.687397734154095</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.297688590667163</v>
@@ -45134,7 +44870,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.725867867122774</v>
+        <v>1.680559021502426</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.319400320556401</v>
@@ -45223,7 +44959,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.72543346335768</v>
+        <v>1.686863491787828</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.23904586209604</v>
@@ -45312,7 +45048,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.714216046428189</v>
+        <v>1.679391632398112</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.653678861090872</v>
@@ -45401,7 +45137,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.696147354829139</v>
+        <v>1.666806858289738</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.53957670512383</v>
@@ -45490,7 +45226,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.692945792332934</v>
+        <v>1.655840260574193</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.498013032433506</v>
@@ -45579,7 +45315,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.67856756318517</v>
+        <v>1.64577731809823</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.24352220317949</v>
@@ -45668,7 +45404,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.67072671468411</v>
+        <v>1.639373746815051</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.413293638300369</v>
@@ -45757,7 +45493,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.682488978593316</v>
+        <v>1.650111216339655</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.556044118704967</v>
@@ -45846,7 +45582,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.651807672740658</v>
+        <v>1.622406111947484</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.880880013695781</v>
@@ -45935,7 +45671,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.619584289274191</v>
+        <v>1.594024805564219</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.485826974246252</v>
@@ -46024,7 +45760,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.608230198524516</v>
+        <v>1.590099030702748</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.697670956542639</v>
@@ -46113,7 +45849,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.565945298170753</v>
+        <v>1.557348309886996</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.574250427403773</v>
@@ -46202,7 +45938,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.56457383240483</v>
+        <v>1.55656310359491</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.501736224706594</v>
@@ -46291,7 +46027,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.564918734931782</v>
+        <v>1.552321018913722</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.47931031653641</v>
@@ -46380,7 +46116,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.558412901310205</v>
+        <v>1.546008501760669</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.519553242713402</v>
@@ -46469,7 +46205,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.561956300281782</v>
+        <v>1.55089597113418</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.575063359654644</v>
@@ -46558,7 +46294,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.553721497577816</v>
+        <v>1.542788097385778</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.491045102463317</v>
@@ -46647,7 +46383,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.555725132948282</v>
+        <v>1.544409401835704</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.475322272972998</v>
@@ -46736,7 +46472,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.560591734487926</v>
+        <v>1.549538586544818</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.550672023782179</v>
@@ -46825,7 +46561,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.560055264332242</v>
+        <v>1.555550390015034</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.558184381835191</v>
@@ -46914,7 +46650,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.535183068647728</v>
+        <v>1.531875557361901</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.554765926371844</v>
@@ -47003,7 +46739,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.534806730374376</v>
+        <v>1.531433765110624</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.537412128168608</v>
@@ -47092,7 +46828,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.533575832010432</v>
+        <v>1.528009927338147</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.426180971313267</v>
@@ -47181,7 +46917,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.548393291122279</v>
+        <v>1.540303522658466</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.580140669508971</v>
@@ -47270,7 +47006,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.563569605827118</v>
+        <v>1.553581104128309</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.415343324197768</v>
@@ -47359,7 +47095,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.576158060777443</v>
+        <v>1.560172902107957</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.378116455549403</v>
@@ -47448,7 +47184,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.616495401037036</v>
+        <v>1.592469780313312</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.49258433905577</v>
@@ -47537,7 +47273,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.610035751646203</v>
+        <v>1.580258796641452</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.505913244855723</v>
@@ -47823,7 +47559,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.616067600228898</v>
+        <v>1.647867066437557</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.043811473983147</v>
@@ -47912,7 +47648,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.607996570008226</v>
+        <v>1.638907761538323</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.930661497638071</v>
@@ -48001,7 +47737,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.592512717225247</v>
+        <v>1.620204045422037</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.531243573744981</v>
@@ -48090,7 +47826,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.594513035035622</v>
+        <v>1.62232103703155</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.36733913065263</v>
@@ -48179,7 +47915,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.622187926744699</v>
+        <v>1.646939826832562</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.60600311464331</v>
@@ -48268,7 +48004,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644243046711578</v>
+        <v>1.667611452536164</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.770097150425205</v>
@@ -48357,7 +48093,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.649660853047622</v>
+        <v>1.674269857612424</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.724110865983154</v>
@@ -48446,7 +48182,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.654052907173401</v>
+        <v>1.679281145981969</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.777763871795466</v>
@@ -48535,7 +48271,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.688607491230948</v>
+        <v>1.714805016195034</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.802626753253028</v>
@@ -48624,7 +48360,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.769030543410101</v>
+        <v>1.789116940659091</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.943282400096607</v>
@@ -48713,7 +48449,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.805629018177867</v>
+        <v>1.822095468998591</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.899815538382125</v>
@@ -48802,7 +48538,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.799559161749687</v>
+        <v>1.8092408215093</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.809904720323447</v>
@@ -48891,7 +48627,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.779661652340075</v>
+        <v>1.793603221118253</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.076717999728825</v>
@@ -48980,7 +48716,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.775347654933062</v>
+        <v>1.786068517852759</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.007574101880078</v>
@@ -49069,7 +48805,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.751707099509158</v>
+        <v>1.762974675740556</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.758067589344056</v>
@@ -49158,7 +48894,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.770621446390563</v>
+        <v>1.779091002983044</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.280168471073</v>
@@ -49247,7 +48983,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.751949687234296</v>
+        <v>1.766369066981277</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.166716290166361</v>
@@ -49336,7 +49072,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.752148951032858</v>
+        <v>1.767765037684729</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.209245807893622</v>
@@ -49425,7 +49161,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.764585827489374</v>
+        <v>1.779488529436198</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.005606120505571</v>
@@ -49514,7 +49250,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.753672780297816</v>
+        <v>1.76549364760717</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.955986098891167</v>
@@ -49603,7 +49339,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.72551678490945</v>
+        <v>1.737186135290635</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.934077007582587</v>
@@ -49692,7 +49428,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.732364790419857</v>
+        <v>1.738448533270592</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.038649946385011</v>
@@ -49781,7 +49517,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.731023993333313</v>
+        <v>1.741639987266937</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.002613562108166</v>
@@ -49870,7 +49606,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.737978467740672</v>
+        <v>1.745483497067138</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.075346346510803</v>
@@ -49959,7 +49695,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.746452599885421</v>
+        <v>1.754667424478767</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.170751461712827</v>
@@ -50048,7 +49784,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.748378581255898</v>
+        <v>1.755691509716806</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.748386963252026</v>
@@ -50137,7 +49873,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.749156386574683</v>
+        <v>1.763339121379166</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.988254434462945</v>
@@ -50226,7 +49962,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.749441579544706</v>
+        <v>1.762569397875096</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.301603091599685</v>
@@ -50315,7 +50051,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.740631000756881</v>
+        <v>1.755191960655851</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.804915682685842</v>
@@ -50404,7 +50140,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.745666129434646</v>
+        <v>1.755563434577736</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.952500954383692</v>
@@ -50493,7 +50229,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.753686004140365</v>
+        <v>1.766332531137704</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.695854618699627</v>
@@ -50582,7 +50318,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.776911760620746</v>
+        <v>1.785396673746442</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.916107584902627</v>
@@ -50671,7 +50407,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.761679994671123</v>
+        <v>1.773084506918344</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.92350379594319</v>
@@ -50760,7 +50496,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.76102992267466</v>
+        <v>1.767665320983956</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.689429126280967</v>
@@ -50849,7 +50585,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.783490914083998</v>
+        <v>1.789246221730945</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.399492967164021</v>
@@ -50938,7 +50674,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.791786466821618</v>
+        <v>1.799395385818398</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.655893649765608</v>
@@ -51027,7 +50763,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.783552456807224</v>
+        <v>1.790927785967551</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.623838802957055</v>
@@ -51116,7 +50852,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.791629804352112</v>
+        <v>1.796516608686187</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.858753076773466</v>
@@ -51205,7 +50941,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.787288730773985</v>
+        <v>1.789114556552294</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.848429863638022</v>
@@ -51294,7 +51030,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.790540450394633</v>
+        <v>1.787567108223233</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.836300068025357</v>
@@ -51383,7 +51119,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.792284348690027</v>
+        <v>1.787190797254369</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.694874276842762</v>
@@ -51472,7 +51208,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.816687152503099</v>
+        <v>1.805716549974942</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.712302679499041</v>
@@ -51561,7 +51297,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.819678933994435</v>
+        <v>1.811563287549562</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.838028120744217</v>
@@ -51650,7 +51386,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.855514293306415</v>
+        <v>1.851137193485881</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.743575986068256</v>
@@ -51739,7 +51475,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.863780764990714</v>
+        <v>1.859006840470624</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.786979157784946</v>
@@ -51828,7 +51564,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.838292494346673</v>
+        <v>1.837546967312009</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.094824367419483</v>
@@ -51917,7 +51653,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.837766500090726</v>
+        <v>1.83298417000802</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.751140039454866</v>
@@ -52006,7 +51742,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.858785632319707</v>
+        <v>1.849824513216754</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.936173175472678</v>
@@ -52095,7 +51831,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.858982940264412</v>
+        <v>1.853532769443704</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.329996274589186</v>
@@ -52184,7 +51920,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.857660511076104</v>
+        <v>1.856231963035551</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.06101340071872</v>
@@ -52273,7 +52009,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.864841015819163</v>
+        <v>1.862477230157349</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.127859148246633</v>
@@ -52362,7 +52098,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.866270547811153</v>
+        <v>1.862477539936855</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.034626074839596</v>
@@ -52451,7 +52187,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.895015542654187</v>
+        <v>1.88650846902312</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.956627373630541</v>
@@ -52540,7 +52276,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.893316636506151</v>
+        <v>1.892888535591593</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.162830963702846</v>
@@ -52629,7 +52365,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.896295792794979</v>
+        <v>1.898254468835723</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.155997715282262</v>
@@ -52718,7 +52454,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.895102513917136</v>
+        <v>1.895254647575492</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.022957739707438</v>
@@ -52807,7 +52543,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.894081597790084</v>
+        <v>1.891735032584316</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.108696582871072</v>
@@ -52896,7 +52632,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.924076205903138</v>
+        <v>1.915612145483387</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.343290279375889</v>
@@ -52985,7 +52721,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.91802163006201</v>
+        <v>1.908905211911191</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.319703551490717</v>
@@ -53074,7 +52810,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.916403865150473</v>
+        <v>1.911672759402583</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.203555671465068</v>
@@ -53163,7 +52899,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.942600192971837</v>
+        <v>1.927557190368294</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.19170366520165</v>
@@ -53252,7 +52988,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.943777153230998</v>
+        <v>1.928674715827937</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.219100024200885</v>
@@ -53341,7 +53077,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.89586054052024</v>
+        <v>1.890886394354194</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.299458223418459</v>
@@ -53430,7 +53166,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.872072239697246</v>
+        <v>1.875461180293822</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.32577766381403</v>
@@ -53519,7 +53255,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.8568332953892</v>
+        <v>1.864107858006298</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.047192042071848</v>
@@ -53608,7 +53344,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.862499455685744</v>
+        <v>1.869709115746778</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.172313123450585</v>
@@ -53697,7 +53433,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.863900485660971</v>
+        <v>1.875466918765372</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.303896342975072</v>
@@ -53786,7 +53522,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.821765457276395</v>
+        <v>1.837787016430819</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.33872363510747</v>
@@ -53875,7 +53611,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.81605095349548</v>
+        <v>1.837369153282201</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.577091843235405</v>
@@ -53964,7 +53700,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.82006974723878</v>
+        <v>1.842396379838755</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.611502280328523</v>
@@ -54053,7 +53789,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.778728848412106</v>
+        <v>1.80554198517881</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.573055508348356</v>
@@ -54142,7 +53878,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.779295983370879</v>
+        <v>1.807365029010681</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.710120082924595</v>
@@ -54231,7 +53967,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.783019735569382</v>
+        <v>1.808685055083822</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.623863029651832</v>
@@ -54320,7 +54056,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.784819563315678</v>
+        <v>1.810598315152896</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.671176121026467</v>
@@ -54409,7 +54145,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.78044363104593</v>
+        <v>1.805138159075844</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.758896756983941</v>
@@ -54498,7 +54234,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.732714346704416</v>
+        <v>1.765664869898375</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.700403417769697</v>
@@ -54587,7 +54323,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.720618556547197</v>
+        <v>1.758019119433466</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.548958676485956</v>
@@ -54676,7 +54412,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.735966177647952</v>
+        <v>1.770997352232397</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.631778944441092</v>
@@ -54765,7 +54501,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.731398140450351</v>
+        <v>1.765193992600949</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.701552339392158</v>
@@ -54854,7 +54590,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.716665340661331</v>
+        <v>1.746788313222002</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.642390895354786</v>
@@ -54943,7 +54679,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.695265148182095</v>
+        <v>1.72558516146837</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.565599897991108</v>
@@ -55032,7 +54768,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.694319503198967</v>
+        <v>1.722876126909976</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.619811287926062</v>
@@ -55121,7 +54857,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.719814071860639</v>
+        <v>1.746119000883933</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.680425468638195</v>
@@ -55210,7 +54946,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.70082336751321</v>
+        <v>1.721625895547696</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.788181835697905</v>
@@ -55299,7 +55035,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.679797768572033</v>
+        <v>1.704759394459982</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.689377084857913</v>
@@ -55388,7 +55124,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.728247215726562</v>
+        <v>1.747933818615248</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.981538063344313</v>
@@ -55477,7 +55213,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.722085831058253</v>
+        <v>1.744382699328949</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.897268933084929</v>
